--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -11776,7 +11776,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -15773,7 +15773,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -16344,7 +16344,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -16915,7 +16915,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -27193,7 +27193,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -28906,7 +28906,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -29477,7 +29477,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -31190,7 +31190,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -32332,7 +32332,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -32903,7 +32903,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -33474,7 +33474,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -34045,7 +34045,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -34616,7 +34616,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -35187,7 +35187,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -35758,7 +35758,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -36329,7 +36329,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -36900,7 +36900,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -37471,7 +37471,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -38042,7 +38042,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -38613,7 +38613,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -39184,7 +39184,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -39755,7 +39755,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -40326,7 +40326,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -40897,7 +40897,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -41468,7 +41468,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -42039,7 +42039,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -42610,7 +42610,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -43181,7 +43181,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -43752,7 +43752,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -44323,7 +44323,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -44894,7 +44894,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -45465,7 +45465,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -46036,7 +46036,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -46607,7 +46607,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -47178,7 +47178,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -47749,7 +47749,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -48320,7 +48320,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -48891,7 +48891,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -49462,7 +49462,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -50033,7 +50033,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -50604,7 +50604,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -51175,7 +51175,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -51746,7 +51746,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -52317,7 +52317,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -52888,7 +52888,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -53459,7 +53459,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -54030,7 +54030,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -54601,7 +54601,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -55172,7 +55172,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -55743,7 +55743,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -56314,7 +56314,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -56885,7 +56885,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -57456,7 +57456,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -58027,7 +58027,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG102"/>
+  <dimension ref="A1:GI102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,6 +923,12 @@
       <c r="GG1" t="n">
         <v>9932</v>
       </c>
+      <c r="GH1" t="n">
+        <v>10132</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>10136</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1494,6 +1500,12 @@
       <c r="GG2" t="n">
         <v>2020</v>
       </c>
+      <c r="GH2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2065,6 +2077,12 @@
       <c r="GG3" t="n">
         <v>1</v>
       </c>
+      <c r="GH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2636,6 +2654,12 @@
       <c r="GG4" t="n">
         <v>0</v>
       </c>
+      <c r="GH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3207,6 +3231,12 @@
       <c r="GG5" t="n">
         <v>0</v>
       </c>
+      <c r="GH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3778,6 +3808,12 @@
       <c r="GG6" t="n">
         <v>105</v>
       </c>
+      <c r="GH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4349,6 +4385,12 @@
       <c r="GG7" t="n">
         <v>73</v>
       </c>
+      <c r="GH7" t="n">
+        <v>80</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4920,6 +4962,12 @@
       <c r="GG8" t="n">
         <v>32</v>
       </c>
+      <c r="GH8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>-24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5491,6 +5539,12 @@
       <c r="GG9" t="n">
         <v>1</v>
       </c>
+      <c r="GH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6062,6 +6116,12 @@
       <c r="GG10" t="n">
         <v>7</v>
       </c>
+      <c r="GH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6633,6 +6693,12 @@
       <c r="GG11" t="n">
         <v>167</v>
       </c>
+      <c r="GH11" t="n">
+        <v>142</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7204,6 +7270,12 @@
       <c r="GG12" t="n">
         <v>91</v>
       </c>
+      <c r="GH12" t="n">
+        <v>117</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7775,6 +7847,12 @@
       <c r="GG13" t="n">
         <v>258</v>
       </c>
+      <c r="GH13" t="n">
+        <v>259</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8346,6 +8424,12 @@
       <c r="GG14" t="n">
         <v>1.84</v>
       </c>
+      <c r="GH14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="GI14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8917,6 +9001,12 @@
       <c r="GG15" t="n">
         <v>64</v>
       </c>
+      <c r="GH15" t="n">
+        <v>43</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9488,6 +9578,12 @@
       <c r="GG16" t="n">
         <v>43</v>
       </c>
+      <c r="GH16" t="n">
+        <v>64</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10059,6 +10155,12 @@
       <c r="GG17" t="n">
         <v>32</v>
       </c>
+      <c r="GH17" t="n">
+        <v>35</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10630,6 +10732,12 @@
       <c r="GG18" t="n">
         <v>24</v>
       </c>
+      <c r="GH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11201,6 +11309,12 @@
       <c r="GG19" t="n">
         <v>15</v>
       </c>
+      <c r="GH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="GI19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11772,6 +11886,12 @@
       <c r="GG20" t="n">
         <v>17</v>
       </c>
+      <c r="GH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12343,6 +12463,12 @@
       <c r="GG21" t="n">
         <v>13</v>
       </c>
+      <c r="GH21" t="n">
+        <v>5</v>
+      </c>
+      <c r="GI21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12914,6 +13040,12 @@
       <c r="GG22" t="n">
         <v>2</v>
       </c>
+      <c r="GH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="GI22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13485,6 +13617,12 @@
       <c r="GG23" t="n">
         <v>1</v>
       </c>
+      <c r="GH23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14056,6 +14194,12 @@
       <c r="GG24" t="n">
         <v>20</v>
       </c>
+      <c r="GH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14627,6 +14771,12 @@
       <c r="GG25" t="n">
         <v>85</v>
       </c>
+      <c r="GH25" t="n">
+        <v>40</v>
+      </c>
+      <c r="GI25" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15198,6 +15348,12 @@
       <c r="GG26" t="n">
         <v>15.18</v>
       </c>
+      <c r="GH26" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="GI26" t="n">
+        <v>67.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15769,6 +15925,12 @@
       <c r="GG27" t="n">
         <v>12.9</v>
       </c>
+      <c r="GH27" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="GI27" t="n">
+        <v>20.77</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -16340,6 +16502,12 @@
       <c r="GG28" t="n">
         <v>33</v>
       </c>
+      <c r="GH28" t="n">
+        <v>36</v>
+      </c>
+      <c r="GI28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -16911,6 +17079,12 @@
       <c r="GG29" t="n">
         <v>37</v>
       </c>
+      <c r="GH29" t="n">
+        <v>41</v>
+      </c>
+      <c r="GI29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17482,6 +17656,12 @@
       <c r="GG30" t="n">
         <v>31</v>
       </c>
+      <c r="GH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="GI30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18053,6 +18233,12 @@
       <c r="GG31" t="n">
         <v>39</v>
       </c>
+      <c r="GH31" t="n">
+        <v>38</v>
+      </c>
+      <c r="GI31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -18624,6 +18810,12 @@
       <c r="GG32" t="n">
         <v>1.95</v>
       </c>
+      <c r="GH32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="GI32" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19195,6 +19387,12 @@
       <c r="GG33" t="n">
         <v>2.29</v>
       </c>
+      <c r="GH33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="GI33" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -19766,6 +19964,12 @@
       <c r="GG34" t="n">
         <v>48.7</v>
       </c>
+      <c r="GH34" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="GI34" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20337,6 +20541,12 @@
       <c r="GG35" t="n">
         <v>43.6</v>
       </c>
+      <c r="GH35" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="GI35" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -20908,6 +21118,12 @@
       <c r="GG36" t="n">
         <v>187.9</v>
       </c>
+      <c r="GH36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="GI36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -21479,6 +21695,12 @@
       <c r="GG37" t="n">
         <v>87.3</v>
       </c>
+      <c r="GH37" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="GI37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22050,6 +22272,12 @@
       <c r="GG38" t="n">
         <v>25.66</v>
       </c>
+      <c r="GH38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GI38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -22621,6 +22849,12 @@
       <c r="GG39" t="n">
         <v>101.5</v>
       </c>
+      <c r="GH39" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="GI39" t="n">
+        <v>100.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -23192,6 +23426,12 @@
       <c r="GG40" t="n">
         <v>8</v>
       </c>
+      <c r="GH40" t="n">
+        <v>7</v>
+      </c>
+      <c r="GI40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -23763,6 +24003,12 @@
       <c r="GG41" t="n">
         <v>3</v>
       </c>
+      <c r="GH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="GI41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -24334,6 +24580,12 @@
       <c r="GG42" t="n">
         <v>6</v>
       </c>
+      <c r="GH42" t="n">
+        <v>6</v>
+      </c>
+      <c r="GI42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -24905,6 +25157,12 @@
       <c r="GG43" t="n">
         <v>5</v>
       </c>
+      <c r="GH43" t="n">
+        <v>6</v>
+      </c>
+      <c r="GI43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -25476,6 +25734,12 @@
       <c r="GG44" t="n">
         <v>99</v>
       </c>
+      <c r="GH44" t="n">
+        <v>118</v>
+      </c>
+      <c r="GI44" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -26047,6 +26311,12 @@
       <c r="GG45" t="n">
         <v>150</v>
       </c>
+      <c r="GH45" t="n">
+        <v>138</v>
+      </c>
+      <c r="GI45" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -26618,6 +26888,12 @@
       <c r="GG46" t="n">
         <v>197</v>
       </c>
+      <c r="GH46" t="n">
+        <v>177</v>
+      </c>
+      <c r="GI46" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -27189,6 +27465,12 @@
       <c r="GG47" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="GH47" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="GI47" t="n">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -27760,6 +28042,12 @@
       <c r="GG48" t="n">
         <v>37</v>
       </c>
+      <c r="GH48" t="n">
+        <v>41</v>
+      </c>
+      <c r="GI48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -28331,6 +28619,12 @@
       <c r="GG49" t="n">
         <v>9</v>
       </c>
+      <c r="GH49" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -28902,6 +29196,12 @@
       <c r="GG50" t="n">
         <v>17</v>
       </c>
+      <c r="GH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="GI50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -29473,6 +29773,12 @@
       <c r="GG51" t="n">
         <v>33</v>
       </c>
+      <c r="GH51" t="n">
+        <v>36</v>
+      </c>
+      <c r="GI51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -30044,6 +30350,12 @@
       <c r="GG52" t="n">
         <v>31</v>
       </c>
+      <c r="GH52" t="n">
+        <v>29</v>
+      </c>
+      <c r="GI52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -30615,6 +30927,12 @@
       <c r="GG53" t="n">
         <v>33</v>
       </c>
+      <c r="GH53" t="n">
+        <v>41</v>
+      </c>
+      <c r="GI53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -31186,6 +31504,12 @@
       <c r="GG54" t="n">
         <v>1</v>
       </c>
+      <c r="GH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -31757,6 +32081,12 @@
       <c r="GG55" t="n">
         <v>13</v>
       </c>
+      <c r="GH55" t="n">
+        <v>5</v>
+      </c>
+      <c r="GI55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -32328,6 +32658,12 @@
       <c r="GG56" t="n">
         <v>76.5</v>
       </c>
+      <c r="GH56" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="GI56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -32899,6 +33235,12 @@
       <c r="GG57" t="n">
         <v>176</v>
       </c>
+      <c r="GH57" t="n">
+        <v>174</v>
+      </c>
+      <c r="GI57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -33470,6 +33812,12 @@
       <c r="GG58" t="n">
         <v>98</v>
       </c>
+      <c r="GH58" t="n">
+        <v>147</v>
+      </c>
+      <c r="GI58" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -34041,6 +34389,12 @@
       <c r="GG59" t="n">
         <v>274</v>
       </c>
+      <c r="GH59" t="n">
+        <v>321</v>
+      </c>
+      <c r="GI59" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -34612,6 +34966,12 @@
       <c r="GG60" t="n">
         <v>1.8</v>
       </c>
+      <c r="GH60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="GI60" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -35183,6 +35543,12 @@
       <c r="GG61" t="n">
         <v>84</v>
       </c>
+      <c r="GH61" t="n">
+        <v>60</v>
+      </c>
+      <c r="GI61" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -35754,6 +36120,12 @@
       <c r="GG62" t="n">
         <v>29</v>
       </c>
+      <c r="GH62" t="n">
+        <v>57</v>
+      </c>
+      <c r="GI62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -36325,6 +36697,12 @@
       <c r="GG63" t="n">
         <v>27</v>
       </c>
+      <c r="GH63" t="n">
+        <v>51</v>
+      </c>
+      <c r="GI63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -36896,6 +37274,12 @@
       <c r="GG64" t="n">
         <v>15</v>
       </c>
+      <c r="GH64" t="n">
+        <v>22</v>
+      </c>
+      <c r="GI64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -37467,6 +37851,12 @@
       <c r="GG65" t="n">
         <v>24</v>
       </c>
+      <c r="GH65" t="n">
+        <v>10</v>
+      </c>
+      <c r="GI65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -38038,6 +38428,12 @@
       <c r="GG66" t="n">
         <v>11</v>
       </c>
+      <c r="GH66" t="n">
+        <v>12</v>
+      </c>
+      <c r="GI66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -38609,6 +39005,12 @@
       <c r="GG67" t="n">
         <v>11</v>
       </c>
+      <c r="GH67" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -39180,6 +39582,12 @@
       <c r="GG68" t="n">
         <v>7</v>
       </c>
+      <c r="GH68" t="n">
+        <v>6</v>
+      </c>
+      <c r="GI68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -39751,6 +40159,12 @@
       <c r="GG69" t="n">
         <v>0</v>
       </c>
+      <c r="GH69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -40322,6 +40736,12 @@
       <c r="GG70" t="n">
         <v>18</v>
       </c>
+      <c r="GH70" t="n">
+        <v>20</v>
+      </c>
+      <c r="GI70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -40893,6 +41313,12 @@
       <c r="GG71" t="n">
         <v>61.1</v>
       </c>
+      <c r="GH71" t="n">
+        <v>60</v>
+      </c>
+      <c r="GI71" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -41464,6 +41890,12 @@
       <c r="GG72" t="n">
         <v>24.91</v>
       </c>
+      <c r="GH72" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="GI72" t="n">
+        <v>37.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -42035,6 +42467,12 @@
       <c r="GG73" t="n">
         <v>15.22</v>
       </c>
+      <c r="GH73" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="GI73" t="n">
+        <v>17.82</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -42606,6 +43044,12 @@
       <c r="GG74" t="n">
         <v>30</v>
       </c>
+      <c r="GH74" t="n">
+        <v>44</v>
+      </c>
+      <c r="GI74" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -43177,6 +43621,12 @@
       <c r="GG75" t="n">
         <v>57</v>
       </c>
+      <c r="GH75" t="n">
+        <v>37</v>
+      </c>
+      <c r="GI75" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -43748,6 +44198,12 @@
       <c r="GG76" t="n">
         <v>21</v>
       </c>
+      <c r="GH76" t="n">
+        <v>30</v>
+      </c>
+      <c r="GI76" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -44319,6 +44775,12 @@
       <c r="GG77" t="n">
         <v>41</v>
       </c>
+      <c r="GH77" t="n">
+        <v>43</v>
+      </c>
+      <c r="GI77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -44890,6 +45352,12 @@
       <c r="GG78" t="n">
         <v>2.28</v>
       </c>
+      <c r="GH78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="GI78" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -45461,6 +45929,12 @@
       <c r="GG79" t="n">
         <v>3.73</v>
       </c>
+      <c r="GH79" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="GI79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -46032,6 +46506,12 @@
       <c r="GG80" t="n">
         <v>43.9</v>
       </c>
+      <c r="GH80" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="GI80" t="n">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -46603,6 +47083,12 @@
       <c r="GG81" t="n">
         <v>26.8</v>
       </c>
+      <c r="GH81" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="GI81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -47174,6 +47660,12 @@
       <c r="GG82" t="n">
         <v>188.5</v>
       </c>
+      <c r="GH82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="GI82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -47745,6 +48237,12 @@
       <c r="GG83" t="n">
         <v>88.7</v>
       </c>
+      <c r="GH83" t="n">
+        <v>87</v>
+      </c>
+      <c r="GI83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -48316,6 +48814,12 @@
       <c r="GG84" t="n">
         <v>26.91</v>
       </c>
+      <c r="GH84" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="GI84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -48887,6 +49391,12 @@
       <c r="GG85" t="n">
         <v>126</v>
       </c>
+      <c r="GH85" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="GI85" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -49458,6 +49968,12 @@
       <c r="GG86" t="n">
         <v>9</v>
       </c>
+      <c r="GH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GI86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -50029,6 +50545,12 @@
       <c r="GG87" t="n">
         <v>2</v>
       </c>
+      <c r="GH87" t="n">
+        <v>5</v>
+      </c>
+      <c r="GI87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -50600,6 +51122,12 @@
       <c r="GG88" t="n">
         <v>1</v>
       </c>
+      <c r="GH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="GI88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -51171,6 +51699,12 @@
       <c r="GG89" t="n">
         <v>10</v>
       </c>
+      <c r="GH89" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -51742,6 +52276,12 @@
       <c r="GG90" t="n">
         <v>103</v>
       </c>
+      <c r="GH90" t="n">
+        <v>120</v>
+      </c>
+      <c r="GI90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -52313,6 +52853,12 @@
       <c r="GG91" t="n">
         <v>171</v>
       </c>
+      <c r="GH91" t="n">
+        <v>192</v>
+      </c>
+      <c r="GI91" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -52884,6 +53430,12 @@
       <c r="GG92" t="n">
         <v>213</v>
       </c>
+      <c r="GH92" t="n">
+        <v>239</v>
+      </c>
+      <c r="GI92" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -53455,6 +54007,12 @@
       <c r="GG93" t="n">
         <v>77.7</v>
       </c>
+      <c r="GH93" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="GI93" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -54026,6 +54584,12 @@
       <c r="GG94" t="n">
         <v>57</v>
       </c>
+      <c r="GH94" t="n">
+        <v>37</v>
+      </c>
+      <c r="GI94" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -54597,6 +55161,12 @@
       <c r="GG95" t="n">
         <v>8</v>
       </c>
+      <c r="GH95" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -55168,6 +55738,12 @@
       <c r="GG96" t="n">
         <v>9</v>
       </c>
+      <c r="GH96" t="n">
+        <v>10</v>
+      </c>
+      <c r="GI96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -55739,6 +56315,12 @@
       <c r="GG97" t="n">
         <v>30</v>
       </c>
+      <c r="GH97" t="n">
+        <v>44</v>
+      </c>
+      <c r="GI97" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -56310,6 +56892,12 @@
       <c r="GG98" t="n">
         <v>21</v>
       </c>
+      <c r="GH98" t="n">
+        <v>30</v>
+      </c>
+      <c r="GI98" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -56881,6 +57469,12 @@
       <c r="GG99" t="n">
         <v>33</v>
       </c>
+      <c r="GH99" t="n">
+        <v>37</v>
+      </c>
+      <c r="GI99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -57452,6 +58046,12 @@
       <c r="GG100" t="n">
         <v>3</v>
       </c>
+      <c r="GH100" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -58023,6 +58623,12 @@
       <c r="GG101" t="n">
         <v>11</v>
       </c>
+      <c r="GH101" t="n">
+        <v>8</v>
+      </c>
+      <c r="GI101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -58594,8 +59200,14 @@
       <c r="GG102" t="n">
         <v>100</v>
       </c>
+      <c r="GH102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GI102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GI102"/>
+  <dimension ref="A1:GJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,9 @@
       <c r="GI1" t="n">
         <v>10136</v>
       </c>
+      <c r="GJ1" t="n">
+        <v>10145</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1506,6 +1509,9 @@
       <c r="GI2" t="n">
         <v>2020</v>
       </c>
+      <c r="GJ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2083,6 +2089,9 @@
       <c r="GI3" t="n">
         <v>3</v>
       </c>
+      <c r="GJ3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2660,6 +2669,9 @@
       <c r="GI4" t="n">
         <v>1</v>
       </c>
+      <c r="GJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3237,6 +3249,9 @@
       <c r="GI5" t="n">
         <v>0</v>
       </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3814,6 +3829,9 @@
       <c r="GI6" t="n">
         <v>33</v>
       </c>
+      <c r="GJ6" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4391,6 +4409,9 @@
       <c r="GI7" t="n">
         <v>57</v>
       </c>
+      <c r="GJ7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4968,6 +4989,9 @@
       <c r="GI8" t="n">
         <v>-24</v>
       </c>
+      <c r="GJ8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5545,6 +5569,9 @@
       <c r="GI9" t="n">
         <v>0</v>
       </c>
+      <c r="GJ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6122,6 +6149,9 @@
       <c r="GI10" t="n">
         <v>18</v>
       </c>
+      <c r="GJ10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6699,6 +6729,9 @@
       <c r="GI11" t="n">
         <v>180</v>
       </c>
+      <c r="GJ11" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7276,6 +7309,9 @@
       <c r="GI12" t="n">
         <v>90</v>
       </c>
+      <c r="GJ12" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7853,6 +7889,9 @@
       <c r="GI13" t="n">
         <v>270</v>
       </c>
+      <c r="GJ13" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8430,6 +8469,9 @@
       <c r="GI14" t="n">
         <v>2</v>
       </c>
+      <c r="GJ14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9007,6 +9049,9 @@
       <c r="GI15" t="n">
         <v>103</v>
       </c>
+      <c r="GJ15" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9584,6 +9629,9 @@
       <c r="GI16" t="n">
         <v>39</v>
       </c>
+      <c r="GJ16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10161,6 +10209,9 @@
       <c r="GI17" t="n">
         <v>28</v>
       </c>
+      <c r="GJ17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10738,6 +10789,9 @@
       <c r="GI18" t="n">
         <v>16</v>
       </c>
+      <c r="GJ18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11315,6 +11369,9 @@
       <c r="GI19" t="n">
         <v>26</v>
       </c>
+      <c r="GJ19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11892,6 +11949,9 @@
       <c r="GI20" t="n">
         <v>4</v>
       </c>
+      <c r="GJ20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12469,6 +12529,9 @@
       <c r="GI21" t="n">
         <v>2</v>
       </c>
+      <c r="GJ21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13046,6 +13109,9 @@
       <c r="GI22" t="n">
         <v>5</v>
       </c>
+      <c r="GJ22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13623,6 +13689,9 @@
       <c r="GI23" t="n">
         <v>4</v>
       </c>
+      <c r="GJ23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14200,6 +14269,9 @@
       <c r="GI24" t="n">
         <v>13</v>
       </c>
+      <c r="GJ24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14777,6 +14849,9 @@
       <c r="GI25" t="n">
         <v>30.8</v>
       </c>
+      <c r="GJ25" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15354,6 +15429,9 @@
       <c r="GI26" t="n">
         <v>67.5</v>
       </c>
+      <c r="GJ26" t="n">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15931,6 +16009,9 @@
       <c r="GI27" t="n">
         <v>20.77</v>
       </c>
+      <c r="GJ27" t="n">
+        <v>18.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -16508,6 +16589,9 @@
       <c r="GI28" t="n">
         <v>23</v>
       </c>
+      <c r="GJ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17085,6 +17169,9 @@
       <c r="GI29" t="n">
         <v>52</v>
       </c>
+      <c r="GJ29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17662,6 +17749,9 @@
       <c r="GI30" t="n">
         <v>35</v>
       </c>
+      <c r="GJ30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18239,6 +18329,9 @@
       <c r="GI31" t="n">
         <v>29</v>
       </c>
+      <c r="GJ31" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -18816,6 +18909,9 @@
       <c r="GI32" t="n">
         <v>2.23</v>
       </c>
+      <c r="GJ32" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19393,6 +19489,9 @@
       <c r="GI33" t="n">
         <v>7.25</v>
       </c>
+      <c r="GJ33" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -19970,6 +20069,9 @@
       <c r="GI34" t="n">
         <v>31</v>
       </c>
+      <c r="GJ34" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20547,6 +20649,9 @@
       <c r="GI35" t="n">
         <v>13.8</v>
       </c>
+      <c r="GJ35" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21124,6 +21229,9 @@
       <c r="GI36" t="n">
         <v>188.4</v>
       </c>
+      <c r="GJ36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -21701,6 +21809,9 @@
       <c r="GI37" t="n">
         <v>87.2</v>
       </c>
+      <c r="GJ37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22278,6 +22389,9 @@
       <c r="GI38" t="n">
         <v>25.58</v>
       </c>
+      <c r="GJ38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -22855,6 +22969,9 @@
       <c r="GI39" t="n">
         <v>100.5</v>
       </c>
+      <c r="GJ39" t="n">
+        <v>109.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -23432,6 +23549,9 @@
       <c r="GI40" t="n">
         <v>9</v>
       </c>
+      <c r="GJ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -24009,6 +24129,9 @@
       <c r="GI41" t="n">
         <v>3</v>
       </c>
+      <c r="GJ41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -24586,6 +24709,9 @@
       <c r="GI42" t="n">
         <v>4</v>
       </c>
+      <c r="GJ42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -25163,6 +25289,9 @@
       <c r="GI43" t="n">
         <v>6</v>
       </c>
+      <c r="GJ43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -25740,6 +25869,9 @@
       <c r="GI44" t="n">
         <v>102</v>
       </c>
+      <c r="GJ44" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -26317,6 +26449,9 @@
       <c r="GI45" t="n">
         <v>166</v>
       </c>
+      <c r="GJ45" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -26894,6 +27029,9 @@
       <c r="GI46" t="n">
         <v>190</v>
       </c>
+      <c r="GJ46" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -27471,6 +27609,9 @@
       <c r="GI47" t="n">
         <v>70.40000000000001</v>
       </c>
+      <c r="GJ47" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -28048,6 +28189,9 @@
       <c r="GI48" t="n">
         <v>52</v>
       </c>
+      <c r="GJ48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -28625,6 +28769,9 @@
       <c r="GI49" t="n">
         <v>11</v>
       </c>
+      <c r="GJ49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -29202,6 +29349,9 @@
       <c r="GI50" t="n">
         <v>8</v>
       </c>
+      <c r="GJ50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -29779,6 +29929,9 @@
       <c r="GI51" t="n">
         <v>23</v>
       </c>
+      <c r="GJ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -30356,6 +30509,9 @@
       <c r="GI52" t="n">
         <v>35</v>
       </c>
+      <c r="GJ52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -30933,6 +31089,9 @@
       <c r="GI53" t="n">
         <v>34</v>
       </c>
+      <c r="GJ53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -31510,6 +31669,9 @@
       <c r="GI54" t="n">
         <v>6</v>
       </c>
+      <c r="GJ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -32087,6 +32249,9 @@
       <c r="GI55" t="n">
         <v>2</v>
       </c>
+      <c r="GJ55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -32664,6 +32829,9 @@
       <c r="GI56" t="n">
         <v>50</v>
       </c>
+      <c r="GJ56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -33241,6 +33409,9 @@
       <c r="GI57" t="n">
         <v>177</v>
       </c>
+      <c r="GJ57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -33818,6 +33989,9 @@
       <c r="GI58" t="n">
         <v>126</v>
       </c>
+      <c r="GJ58" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -34395,6 +34569,9 @@
       <c r="GI59" t="n">
         <v>303</v>
       </c>
+      <c r="GJ59" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -34972,6 +35149,9 @@
       <c r="GI60" t="n">
         <v>1.4</v>
       </c>
+      <c r="GJ60" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -35549,6 +35729,9 @@
       <c r="GI61" t="n">
         <v>77</v>
       </c>
+      <c r="GJ61" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -36126,6 +36309,9 @@
       <c r="GI62" t="n">
         <v>55</v>
       </c>
+      <c r="GJ62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -36703,6 +36889,9 @@
       <c r="GI63" t="n">
         <v>18</v>
       </c>
+      <c r="GJ63" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -37280,6 +37469,9 @@
       <c r="GI64" t="n">
         <v>26</v>
       </c>
+      <c r="GJ64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -37857,6 +38049,9 @@
       <c r="GI65" t="n">
         <v>16</v>
       </c>
+      <c r="GJ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -38434,6 +38629,9 @@
       <c r="GI66" t="n">
         <v>8</v>
       </c>
+      <c r="GJ66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -39011,6 +39209,9 @@
       <c r="GI67" t="n">
         <v>5</v>
       </c>
+      <c r="GJ67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -39588,6 +39789,9 @@
       <c r="GI68" t="n">
         <v>7</v>
       </c>
+      <c r="GJ68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -40165,6 +40369,9 @@
       <c r="GI69" t="n">
         <v>2</v>
       </c>
+      <c r="GJ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -40742,6 +40949,9 @@
       <c r="GI70" t="n">
         <v>17</v>
       </c>
+      <c r="GJ70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -41319,6 +41529,9 @@
       <c r="GI71" t="n">
         <v>47.1</v>
       </c>
+      <c r="GJ71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -41896,6 +42109,9 @@
       <c r="GI72" t="n">
         <v>37.88</v>
       </c>
+      <c r="GJ72" t="n">
+        <v>32.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -42473,6 +42689,9 @@
       <c r="GI73" t="n">
         <v>17.82</v>
       </c>
+      <c r="GJ73" t="n">
+        <v>15.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -43050,6 +43269,9 @@
       <c r="GI74" t="n">
         <v>22</v>
       </c>
+      <c r="GJ74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -43627,6 +43849,9 @@
       <c r="GI75" t="n">
         <v>39</v>
       </c>
+      <c r="GJ75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -44204,6 +44429,9 @@
       <c r="GI76" t="n">
         <v>24</v>
       </c>
+      <c r="GJ76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -44781,6 +45009,9 @@
       <c r="GI77" t="n">
         <v>44</v>
       </c>
+      <c r="GJ77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -45358,6 +45589,9 @@
       <c r="GI78" t="n">
         <v>2.59</v>
       </c>
+      <c r="GJ78" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -45935,6 +46169,9 @@
       <c r="GI79" t="n">
         <v>5.5</v>
       </c>
+      <c r="GJ79" t="n">
+        <v>5.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -46512,6 +46749,9 @@
       <c r="GI80" t="n">
         <v>34.1</v>
       </c>
+      <c r="GJ80" t="n">
+        <v>35.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -47089,6 +47329,9 @@
       <c r="GI81" t="n">
         <v>18.2</v>
       </c>
+      <c r="GJ81" t="n">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -47666,6 +47909,9 @@
       <c r="GI82" t="n">
         <v>187.2</v>
       </c>
+      <c r="GJ82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -48243,6 +48489,9 @@
       <c r="GI83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="GJ83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -48820,6 +49069,9 @@
       <c r="GI84" t="n">
         <v>25.16</v>
       </c>
+      <c r="GJ84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -49397,6 +49649,9 @@
       <c r="GI85" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="GJ85" t="n">
+        <v>106.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -49974,6 +50229,9 @@
       <c r="GI86" t="n">
         <v>7</v>
       </c>
+      <c r="GJ86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -50551,6 +50809,9 @@
       <c r="GI87" t="n">
         <v>7</v>
       </c>
+      <c r="GJ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -51128,6 +51389,9 @@
       <c r="GI88" t="n">
         <v>7</v>
       </c>
+      <c r="GJ88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -51705,6 +51969,9 @@
       <c r="GI89" t="n">
         <v>1</v>
       </c>
+      <c r="GJ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -52282,6 +52549,9 @@
       <c r="GI90" t="n">
         <v>108</v>
       </c>
+      <c r="GJ90" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -52859,6 +53129,9 @@
       <c r="GI91" t="n">
         <v>192</v>
       </c>
+      <c r="GJ91" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -53436,6 +53709,9 @@
       <c r="GI92" t="n">
         <v>222</v>
       </c>
+      <c r="GJ92" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -54013,6 +54289,9 @@
       <c r="GI93" t="n">
         <v>73.3</v>
       </c>
+      <c r="GJ93" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -54590,6 +54869,9 @@
       <c r="GI94" t="n">
         <v>39</v>
       </c>
+      <c r="GJ94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -55167,6 +55449,9 @@
       <c r="GI95" t="n">
         <v>5</v>
       </c>
+      <c r="GJ95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -55744,6 +56029,9 @@
       <c r="GI96" t="n">
         <v>8</v>
       </c>
+      <c r="GJ96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -56321,6 +56609,9 @@
       <c r="GI97" t="n">
         <v>22</v>
       </c>
+      <c r="GJ97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -56898,6 +57189,9 @@
       <c r="GI98" t="n">
         <v>24</v>
       </c>
+      <c r="GJ98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -57475,6 +57769,9 @@
       <c r="GI99" t="n">
         <v>35</v>
       </c>
+      <c r="GJ99" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -58052,6 +58349,9 @@
       <c r="GI100" t="n">
         <v>7</v>
       </c>
+      <c r="GJ100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -58629,6 +58929,9 @@
       <c r="GI101" t="n">
         <v>5</v>
       </c>
+      <c r="GJ101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -59206,8 +59509,11 @@
       <c r="GI102" t="n">
         <v>62.5</v>
       </c>
+      <c r="GJ102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GJ102"/>
+  <dimension ref="A1:GK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,6 +932,9 @@
       <c r="GJ1" t="n">
         <v>10145</v>
       </c>
+      <c r="GK1" t="n">
+        <v>10190</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1512,6 +1515,9 @@
       <c r="GJ2" t="n">
         <v>2020</v>
       </c>
+      <c r="GK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2092,6 +2098,9 @@
       <c r="GJ3" t="n">
         <v>4</v>
       </c>
+      <c r="GK3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2672,6 +2681,9 @@
       <c r="GJ4" t="n">
         <v>0</v>
       </c>
+      <c r="GK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3252,6 +3264,9 @@
       <c r="GJ5" t="n">
         <v>0</v>
       </c>
+      <c r="GK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3832,6 +3847,9 @@
       <c r="GJ6" t="n">
         <v>66</v>
       </c>
+      <c r="GK6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4412,6 +4430,9 @@
       <c r="GJ7" t="n">
         <v>64</v>
       </c>
+      <c r="GK7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4992,6 +5013,9 @@
       <c r="GJ8" t="n">
         <v>2</v>
       </c>
+      <c r="GK8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5572,6 +5596,9 @@
       <c r="GJ9" t="n">
         <v>1</v>
       </c>
+      <c r="GK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6152,6 +6179,9 @@
       <c r="GJ10" t="n">
         <v>4</v>
       </c>
+      <c r="GK10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6732,6 +6762,9 @@
       <c r="GJ11" t="n">
         <v>163</v>
       </c>
+      <c r="GK11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7312,6 +7345,9 @@
       <c r="GJ12" t="n">
         <v>128</v>
       </c>
+      <c r="GK12" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7892,6 +7928,9 @@
       <c r="GJ13" t="n">
         <v>291</v>
       </c>
+      <c r="GK13" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8472,6 +8511,9 @@
       <c r="GJ14" t="n">
         <v>1.27</v>
       </c>
+      <c r="GK14" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9052,6 +9094,9 @@
       <c r="GJ15" t="n">
         <v>64</v>
       </c>
+      <c r="GK15" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9632,6 +9677,9 @@
       <c r="GJ16" t="n">
         <v>51</v>
       </c>
+      <c r="GK16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10212,6 +10260,9 @@
       <c r="GJ17" t="n">
         <v>21</v>
       </c>
+      <c r="GK17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10792,6 +10843,9 @@
       <c r="GJ18" t="n">
         <v>16</v>
       </c>
+      <c r="GK18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11372,6 +11426,9 @@
       <c r="GJ19" t="n">
         <v>25</v>
       </c>
+      <c r="GK19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11952,6 +12009,9 @@
       <c r="GJ20" t="n">
         <v>10</v>
       </c>
+      <c r="GK20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12532,6 +12592,9 @@
       <c r="GJ21" t="n">
         <v>7</v>
       </c>
+      <c r="GK21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13112,6 +13175,9 @@
       <c r="GJ22" t="n">
         <v>4</v>
       </c>
+      <c r="GK22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13692,6 +13758,9 @@
       <c r="GJ23" t="n">
         <v>2</v>
       </c>
+      <c r="GK23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14272,6 +14341,9 @@
       <c r="GJ24" t="n">
         <v>16</v>
       </c>
+      <c r="GK24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14852,6 +14924,9 @@
       <c r="GJ25" t="n">
         <v>62.5</v>
       </c>
+      <c r="GK25" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15432,6 +15507,9 @@
       <c r="GJ26" t="n">
         <v>29.1</v>
       </c>
+      <c r="GK26" t="n">
+        <v>26.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16012,6 +16090,9 @@
       <c r="GJ27" t="n">
         <v>18.19</v>
       </c>
+      <c r="GK27" t="n">
+        <v>19.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -16592,6 +16673,9 @@
       <c r="GJ28" t="n">
         <v>36</v>
       </c>
+      <c r="GK28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17172,6 +17256,9 @@
       <c r="GJ29" t="n">
         <v>55</v>
       </c>
+      <c r="GK29" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17752,6 +17839,9 @@
       <c r="GJ30" t="n">
         <v>38</v>
       </c>
+      <c r="GK30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18332,6 +18422,9 @@
       <c r="GJ31" t="n">
         <v>37</v>
       </c>
+      <c r="GK31" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -18912,6 +19005,9 @@
       <c r="GJ32" t="n">
         <v>2.31</v>
       </c>
+      <c r="GK32" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19492,6 +19588,9 @@
       <c r="GJ33" t="n">
         <v>3.7</v>
       </c>
+      <c r="GK33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20072,6 +20171,9 @@
       <c r="GJ34" t="n">
         <v>37.8</v>
       </c>
+      <c r="GK34" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20652,6 +20754,9 @@
       <c r="GJ35" t="n">
         <v>27</v>
       </c>
+      <c r="GK35" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21232,6 +21337,9 @@
       <c r="GJ36" t="n">
         <v>188.6</v>
       </c>
+      <c r="GK36" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -21812,6 +21920,9 @@
       <c r="GJ37" t="n">
         <v>87.5</v>
       </c>
+      <c r="GK37" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22392,6 +22503,9 @@
       <c r="GJ38" t="n">
         <v>25.66</v>
       </c>
+      <c r="GK38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -22972,6 +23086,9 @@
       <c r="GJ39" t="n">
         <v>109.9</v>
       </c>
+      <c r="GK39" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -23552,6 +23669,9 @@
       <c r="GJ40" t="n">
         <v>7</v>
       </c>
+      <c r="GK40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -24132,6 +24252,9 @@
       <c r="GJ41" t="n">
         <v>3</v>
       </c>
+      <c r="GK41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -24712,6 +24835,9 @@
       <c r="GJ42" t="n">
         <v>6</v>
       </c>
+      <c r="GK42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -25292,6 +25418,9 @@
       <c r="GJ43" t="n">
         <v>6</v>
       </c>
+      <c r="GK43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -25872,6 +26001,9 @@
       <c r="GJ44" t="n">
         <v>116</v>
       </c>
+      <c r="GK44" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -26452,6 +26584,9 @@
       <c r="GJ45" t="n">
         <v>162</v>
       </c>
+      <c r="GK45" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -27032,6 +27167,9 @@
       <c r="GJ46" t="n">
         <v>194</v>
       </c>
+      <c r="GK46" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -27612,6 +27750,9 @@
       <c r="GJ47" t="n">
         <v>66.7</v>
       </c>
+      <c r="GK47" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -28192,6 +28333,9 @@
       <c r="GJ48" t="n">
         <v>55</v>
       </c>
+      <c r="GK48" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -28772,6 +28916,9 @@
       <c r="GJ49" t="n">
         <v>7</v>
       </c>
+      <c r="GK49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -29352,6 +29499,9 @@
       <c r="GJ50" t="n">
         <v>7</v>
       </c>
+      <c r="GK50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -29932,6 +30082,9 @@
       <c r="GJ51" t="n">
         <v>36</v>
       </c>
+      <c r="GK51" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -30512,6 +30665,9 @@
       <c r="GJ52" t="n">
         <v>38</v>
       </c>
+      <c r="GK52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -31092,6 +31248,9 @@
       <c r="GJ53" t="n">
         <v>43</v>
       </c>
+      <c r="GK53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -31672,6 +31831,9 @@
       <c r="GJ54" t="n">
         <v>0</v>
       </c>
+      <c r="GK54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -32252,6 +32414,9 @@
       <c r="GJ55" t="n">
         <v>7</v>
       </c>
+      <c r="GK55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -32832,6 +32997,9 @@
       <c r="GJ56" t="n">
         <v>70</v>
       </c>
+      <c r="GK56" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -33412,6 +33580,9 @@
       <c r="GJ57" t="n">
         <v>177</v>
       </c>
+      <c r="GK57" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -33992,6 +34163,9 @@
       <c r="GJ58" t="n">
         <v>112</v>
       </c>
+      <c r="GK58" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -34572,6 +34746,9 @@
       <c r="GJ59" t="n">
         <v>289</v>
       </c>
+      <c r="GK59" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -35152,6 +35329,9 @@
       <c r="GJ60" t="n">
         <v>1.58</v>
       </c>
+      <c r="GK60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -35732,6 +35912,9 @@
       <c r="GJ61" t="n">
         <v>72</v>
       </c>
+      <c r="GK61" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -36312,6 +36495,9 @@
       <c r="GJ62" t="n">
         <v>66</v>
       </c>
+      <c r="GK62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -36892,6 +37078,9 @@
       <c r="GJ63" t="n">
         <v>55</v>
       </c>
+      <c r="GK63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -37472,6 +37661,9 @@
       <c r="GJ64" t="n">
         <v>25</v>
       </c>
+      <c r="GK64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -38052,6 +38244,9 @@
       <c r="GJ65" t="n">
         <v>16</v>
       </c>
+      <c r="GK65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -38632,6 +38827,9 @@
       <c r="GJ66" t="n">
         <v>9</v>
       </c>
+      <c r="GK66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -39212,6 +39410,9 @@
       <c r="GJ67" t="n">
         <v>5</v>
       </c>
+      <c r="GK67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -39792,6 +39993,9 @@
       <c r="GJ68" t="n">
         <v>8</v>
       </c>
+      <c r="GK68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -40372,6 +40576,9 @@
       <c r="GJ69" t="n">
         <v>2</v>
       </c>
+      <c r="GK69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -40952,6 +41159,9 @@
       <c r="GJ70" t="n">
         <v>19</v>
       </c>
+      <c r="GK70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -41532,6 +41742,9 @@
       <c r="GJ71" t="n">
         <v>47.4</v>
       </c>
+      <c r="GK71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -42112,6 +42325,9 @@
       <c r="GJ72" t="n">
         <v>32.11</v>
       </c>
+      <c r="GK72" t="n">
+        <v>37.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -42692,6 +42908,9 @@
       <c r="GJ73" t="n">
         <v>15.21</v>
       </c>
+      <c r="GK73" t="n">
+        <v>18.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -43272,6 +43491,9 @@
       <c r="GJ74" t="n">
         <v>31</v>
       </c>
+      <c r="GK74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -43852,6 +44074,9 @@
       <c r="GJ75" t="n">
         <v>47</v>
       </c>
+      <c r="GK75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -44432,6 +44657,9 @@
       <c r="GJ76" t="n">
         <v>27</v>
       </c>
+      <c r="GK76" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -45012,6 +45240,9 @@
       <c r="GJ77" t="n">
         <v>48</v>
       </c>
+      <c r="GK77" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -45592,6 +45823,9 @@
       <c r="GJ78" t="n">
         <v>2.53</v>
       </c>
+      <c r="GK78" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -46172,6 +46406,9 @@
       <c r="GJ79" t="n">
         <v>5.33</v>
       </c>
+      <c r="GK79" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -46752,6 +46989,9 @@
       <c r="GJ80" t="n">
         <v>35.4</v>
       </c>
+      <c r="GK80" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -47332,6 +47572,9 @@
       <c r="GJ81" t="n">
         <v>18.8</v>
       </c>
+      <c r="GK81" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -47912,6 +48155,9 @@
       <c r="GJ82" t="n">
         <v>189.3</v>
       </c>
+      <c r="GK82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -48492,6 +48738,9 @@
       <c r="GJ83" t="n">
         <v>87</v>
       </c>
+      <c r="GK83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -49072,6 +49321,9 @@
       <c r="GJ84" t="n">
         <v>26.24</v>
       </c>
+      <c r="GK84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -49652,6 +49904,9 @@
       <c r="GJ85" t="n">
         <v>106.4</v>
       </c>
+      <c r="GK85" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -50232,6 +50487,9 @@
       <c r="GJ86" t="n">
         <v>7</v>
       </c>
+      <c r="GK86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -50812,6 +51070,9 @@
       <c r="GJ87" t="n">
         <v>4</v>
       </c>
+      <c r="GK87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -51392,6 +51653,9 @@
       <c r="GJ88" t="n">
         <v>6</v>
       </c>
+      <c r="GK88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -51972,6 +52236,9 @@
       <c r="GJ89" t="n">
         <v>5</v>
       </c>
+      <c r="GK89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -52552,6 +52819,9 @@
       <c r="GJ90" t="n">
         <v>127</v>
       </c>
+      <c r="GK90" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -53132,6 +53402,9 @@
       <c r="GJ91" t="n">
         <v>155</v>
       </c>
+      <c r="GK91" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -53712,6 +53985,9 @@
       <c r="GJ92" t="n">
         <v>200</v>
       </c>
+      <c r="GK92" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -54292,6 +54568,9 @@
       <c r="GJ93" t="n">
         <v>69.2</v>
       </c>
+      <c r="GK93" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -54872,6 +55151,9 @@
       <c r="GJ94" t="n">
         <v>47</v>
       </c>
+      <c r="GK94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -55452,6 +55734,9 @@
       <c r="GJ95" t="n">
         <v>11</v>
       </c>
+      <c r="GK95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -56032,6 +56317,9 @@
       <c r="GJ96" t="n">
         <v>9</v>
       </c>
+      <c r="GK96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -56612,6 +56900,9 @@
       <c r="GJ97" t="n">
         <v>31</v>
       </c>
+      <c r="GK97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -57192,6 +57483,9 @@
       <c r="GJ98" t="n">
         <v>27</v>
       </c>
+      <c r="GK98" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -57772,6 +58066,9 @@
       <c r="GJ99" t="n">
         <v>25</v>
       </c>
+      <c r="GK99" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -58352,6 +58649,9 @@
       <c r="GJ100" t="n">
         <v>1</v>
       </c>
+      <c r="GK100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -58932,6 +59232,9 @@
       <c r="GJ101" t="n">
         <v>5</v>
       </c>
+      <c r="GK101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -59512,6 +59815,9 @@
       <c r="GJ102" t="n">
         <v>55.6</v>
       </c>
+      <c r="GK102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GK102"/>
+  <dimension ref="A1:GN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,6 +935,15 @@
       <c r="GK1" t="n">
         <v>10190</v>
       </c>
+      <c r="GL1" t="n">
+        <v>10215</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>10220</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>10228</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1518,6 +1527,15 @@
       <c r="GK2" t="n">
         <v>2020</v>
       </c>
+      <c r="GL2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2101,6 +2119,15 @@
       <c r="GK3" t="n">
         <v>5</v>
       </c>
+      <c r="GL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>7</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2684,6 +2711,15 @@
       <c r="GK4" t="n">
         <v>0</v>
       </c>
+      <c r="GL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3267,6 +3303,15 @@
       <c r="GK5" t="n">
         <v>0</v>
       </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3850,6 +3895,15 @@
       <c r="GK6" t="n">
         <v>83</v>
       </c>
+      <c r="GL6" t="n">
+        <v>46</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>68</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4433,6 +4487,15 @@
       <c r="GK7" t="n">
         <v>49</v>
       </c>
+      <c r="GL7" t="n">
+        <v>63</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>88</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5016,6 +5079,15 @@
       <c r="GK8" t="n">
         <v>34</v>
       </c>
+      <c r="GL8" t="n">
+        <v>-17</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5599,6 +5671,15 @@
       <c r="GK9" t="n">
         <v>1</v>
       </c>
+      <c r="GL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6182,6 +6263,15 @@
       <c r="GK10" t="n">
         <v>10</v>
       </c>
+      <c r="GL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6765,6 +6855,15 @@
       <c r="GK11" t="n">
         <v>207</v>
       </c>
+      <c r="GL11" t="n">
+        <v>172</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>164</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7348,6 +7447,15 @@
       <c r="GK12" t="n">
         <v>136</v>
       </c>
+      <c r="GL12" t="n">
+        <v>155</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>123</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7931,6 +8039,15 @@
       <c r="GK13" t="n">
         <v>343</v>
       </c>
+      <c r="GL13" t="n">
+        <v>327</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>287</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8514,6 +8631,15 @@
       <c r="GK14" t="n">
         <v>1.52</v>
       </c>
+      <c r="GL14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9097,6 +9223,15 @@
       <c r="GK15" t="n">
         <v>120</v>
       </c>
+      <c r="GL15" t="n">
+        <v>73</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>55</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9680,6 +9815,15 @@
       <c r="GK16" t="n">
         <v>51</v>
       </c>
+      <c r="GL16" t="n">
+        <v>45</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>39</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10263,6 +10407,15 @@
       <c r="GK17" t="n">
         <v>22</v>
       </c>
+      <c r="GL17" t="n">
+        <v>20</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>31</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10846,6 +10999,15 @@
       <c r="GK18" t="n">
         <v>26</v>
       </c>
+      <c r="GL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>24</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11429,6 +11591,15 @@
       <c r="GK19" t="n">
         <v>12</v>
       </c>
+      <c r="GL19" t="n">
+        <v>16</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>20</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12012,6 +12183,15 @@
       <c r="GK20" t="n">
         <v>13</v>
       </c>
+      <c r="GL20" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM20" t="n">
+        <v>10</v>
+      </c>
+      <c r="GN20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12595,6 +12775,15 @@
       <c r="GK21" t="n">
         <v>7</v>
       </c>
+      <c r="GL21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13178,6 +13367,15 @@
       <c r="GK22" t="n">
         <v>3</v>
       </c>
+      <c r="GL22" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM22" t="n">
+        <v>7</v>
+      </c>
+      <c r="GN22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13761,6 +13959,15 @@
       <c r="GK23" t="n">
         <v>2</v>
       </c>
+      <c r="GL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14344,6 +14551,15 @@
       <c r="GK24" t="n">
         <v>18</v>
       </c>
+      <c r="GL24" t="n">
+        <v>16</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>18</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14927,6 +15143,15 @@
       <c r="GK25" t="n">
         <v>72.2</v>
       </c>
+      <c r="GL25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="GM25" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="GN25" t="n">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15510,6 +15735,15 @@
       <c r="GK26" t="n">
         <v>26.38</v>
       </c>
+      <c r="GL26" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="GM26" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="GN26" t="n">
+        <v>31.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16093,6 +16327,15 @@
       <c r="GK27" t="n">
         <v>19.06</v>
       </c>
+      <c r="GL27" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="GM27" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="GN27" t="n">
+        <v>16.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -16676,6 +16919,15 @@
       <c r="GK28" t="n">
         <v>25</v>
       </c>
+      <c r="GL28" t="n">
+        <v>25</v>
+      </c>
+      <c r="GM28" t="n">
+        <v>37</v>
+      </c>
+      <c r="GN28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17259,6 +17511,15 @@
       <c r="GK29" t="n">
         <v>43</v>
       </c>
+      <c r="GL29" t="n">
+        <v>53</v>
+      </c>
+      <c r="GM29" t="n">
+        <v>55</v>
+      </c>
+      <c r="GN29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17842,6 +18103,15 @@
       <c r="GK30" t="n">
         <v>30</v>
       </c>
+      <c r="GL30" t="n">
+        <v>42</v>
+      </c>
+      <c r="GM30" t="n">
+        <v>42</v>
+      </c>
+      <c r="GN30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18425,6 +18695,15 @@
       <c r="GK31" t="n">
         <v>26</v>
       </c>
+      <c r="GL31" t="n">
+        <v>33</v>
+      </c>
+      <c r="GM31" t="n">
+        <v>34</v>
+      </c>
+      <c r="GN31" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19008,6 +19287,15 @@
       <c r="GK32" t="n">
         <v>1.44</v>
       </c>
+      <c r="GL32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="GM32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="GN32" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19591,6 +19879,15 @@
       <c r="GK33" t="n">
         <v>2</v>
       </c>
+      <c r="GL33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="GM33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="GN33" t="n">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20174,6 +20471,15 @@
       <c r="GK34" t="n">
         <v>61.5</v>
       </c>
+      <c r="GL34" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="GM34" t="n">
+        <v>50</v>
+      </c>
+      <c r="GN34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20757,6 +21063,15 @@
       <c r="GK35" t="n">
         <v>50</v>
       </c>
+      <c r="GL35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="GM35" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="GN35" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21340,6 +21655,15 @@
       <c r="GK36" t="n">
         <v>189</v>
       </c>
+      <c r="GL36" t="n">
+        <v>189</v>
+      </c>
+      <c r="GM36" t="n">
+        <v>188</v>
+      </c>
+      <c r="GN36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -21923,6 +22247,15 @@
       <c r="GK37" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="GL37" t="n">
+        <v>88</v>
+      </c>
+      <c r="GM37" t="n">
+        <v>87</v>
+      </c>
+      <c r="GN37" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22506,6 +22839,15 @@
       <c r="GK38" t="n">
         <v>26.8</v>
       </c>
+      <c r="GL38" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="GM38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="GN38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -23089,6 +23431,15 @@
       <c r="GK39" t="n">
         <v>102.8</v>
       </c>
+      <c r="GL39" t="n">
+        <v>110</v>
+      </c>
+      <c r="GM39" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="GN39" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -23672,6 +24023,15 @@
       <c r="GK40" t="n">
         <v>7</v>
       </c>
+      <c r="GL40" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM40" t="n">
+        <v>8</v>
+      </c>
+      <c r="GN40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -24255,6 +24615,15 @@
       <c r="GK41" t="n">
         <v>5</v>
       </c>
+      <c r="GL41" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM41" t="n">
+        <v>5</v>
+      </c>
+      <c r="GN41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -24838,6 +25207,15 @@
       <c r="GK42" t="n">
         <v>5</v>
       </c>
+      <c r="GL42" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM42" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -25421,6 +25799,15 @@
       <c r="GK43" t="n">
         <v>5</v>
       </c>
+      <c r="GL43" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GN43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -26004,6 +26391,15 @@
       <c r="GK44" t="n">
         <v>115</v>
       </c>
+      <c r="GL44" t="n">
+        <v>129</v>
+      </c>
+      <c r="GM44" t="n">
+        <v>125</v>
+      </c>
+      <c r="GN44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -26587,6 +26983,15 @@
       <c r="GK45" t="n">
         <v>228</v>
       </c>
+      <c r="GL45" t="n">
+        <v>196</v>
+      </c>
+      <c r="GM45" t="n">
+        <v>162</v>
+      </c>
+      <c r="GN45" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -27170,6 +27575,15 @@
       <c r="GK46" t="n">
         <v>255</v>
       </c>
+      <c r="GL46" t="n">
+        <v>231</v>
+      </c>
+      <c r="GM46" t="n">
+        <v>204</v>
+      </c>
+      <c r="GN46" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -27753,6 +28167,15 @@
       <c r="GK47" t="n">
         <v>74.3</v>
       </c>
+      <c r="GL47" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="GM47" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="GN47" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -28336,6 +28759,15 @@
       <c r="GK48" t="n">
         <v>43</v>
       </c>
+      <c r="GL48" t="n">
+        <v>53</v>
+      </c>
+      <c r="GM48" t="n">
+        <v>55</v>
+      </c>
+      <c r="GN48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -28919,6 +29351,15 @@
       <c r="GK49" t="n">
         <v>13</v>
       </c>
+      <c r="GL49" t="n">
+        <v>10</v>
+      </c>
+      <c r="GM49" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -29502,6 +29943,15 @@
       <c r="GK50" t="n">
         <v>10</v>
       </c>
+      <c r="GL50" t="n">
+        <v>11</v>
+      </c>
+      <c r="GM50" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -30085,6 +30535,15 @@
       <c r="GK51" t="n">
         <v>25</v>
       </c>
+      <c r="GL51" t="n">
+        <v>25</v>
+      </c>
+      <c r="GM51" t="n">
+        <v>37</v>
+      </c>
+      <c r="GN51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -30668,6 +31127,15 @@
       <c r="GK52" t="n">
         <v>30</v>
       </c>
+      <c r="GL52" t="n">
+        <v>42</v>
+      </c>
+      <c r="GM52" t="n">
+        <v>42</v>
+      </c>
+      <c r="GN52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -31251,6 +31719,15 @@
       <c r="GK53" t="n">
         <v>36</v>
       </c>
+      <c r="GL53" t="n">
+        <v>41</v>
+      </c>
+      <c r="GM53" t="n">
+        <v>53</v>
+      </c>
+      <c r="GN53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -31834,6 +32311,15 @@
       <c r="GK54" t="n">
         <v>4</v>
       </c>
+      <c r="GL54" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM54" t="n">
+        <v>7</v>
+      </c>
+      <c r="GN54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -32417,6 +32903,15 @@
       <c r="GK55" t="n">
         <v>7</v>
       </c>
+      <c r="GL55" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM55" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -33000,6 +33495,15 @@
       <c r="GK56" t="n">
         <v>53.8</v>
       </c>
+      <c r="GL56" t="n">
+        <v>100</v>
+      </c>
+      <c r="GM56" t="n">
+        <v>60</v>
+      </c>
+      <c r="GN56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -33583,6 +34087,15 @@
       <c r="GK57" t="n">
         <v>145</v>
       </c>
+      <c r="GL57" t="n">
+        <v>189</v>
+      </c>
+      <c r="GM57" t="n">
+        <v>194</v>
+      </c>
+      <c r="GN57" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -34166,6 +34679,15 @@
       <c r="GK58" t="n">
         <v>116</v>
       </c>
+      <c r="GL58" t="n">
+        <v>116</v>
+      </c>
+      <c r="GM58" t="n">
+        <v>85</v>
+      </c>
+      <c r="GN58" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -34749,6 +35271,15 @@
       <c r="GK59" t="n">
         <v>261</v>
       </c>
+      <c r="GL59" t="n">
+        <v>305</v>
+      </c>
+      <c r="GM59" t="n">
+        <v>279</v>
+      </c>
+      <c r="GN59" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -35332,6 +35863,15 @@
       <c r="GK60" t="n">
         <v>1.25</v>
       </c>
+      <c r="GL60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="GM60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="GN60" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -35915,6 +36455,15 @@
       <c r="GK61" t="n">
         <v>58</v>
       </c>
+      <c r="GL61" t="n">
+        <v>65</v>
+      </c>
+      <c r="GM61" t="n">
+        <v>98</v>
+      </c>
+      <c r="GN61" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -36498,6 +37047,15 @@
       <c r="GK62" t="n">
         <v>49</v>
       </c>
+      <c r="GL62" t="n">
+        <v>45</v>
+      </c>
+      <c r="GM62" t="n">
+        <v>34</v>
+      </c>
+      <c r="GN62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -37081,6 +37639,15 @@
       <c r="GK63" t="n">
         <v>38</v>
       </c>
+      <c r="GL63" t="n">
+        <v>33</v>
+      </c>
+      <c r="GM63" t="n">
+        <v>33</v>
+      </c>
+      <c r="GN63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -37664,6 +38231,15 @@
       <c r="GK64" t="n">
         <v>12</v>
       </c>
+      <c r="GL64" t="n">
+        <v>16</v>
+      </c>
+      <c r="GM64" t="n">
+        <v>20</v>
+      </c>
+      <c r="GN64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -38247,6 +38823,15 @@
       <c r="GK65" t="n">
         <v>26</v>
       </c>
+      <c r="GL65" t="n">
+        <v>11</v>
+      </c>
+      <c r="GM65" t="n">
+        <v>24</v>
+      </c>
+      <c r="GN65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -38830,6 +39415,15 @@
       <c r="GK66" t="n">
         <v>7</v>
       </c>
+      <c r="GL66" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM66" t="n">
+        <v>13</v>
+      </c>
+      <c r="GN66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -39413,6 +40007,15 @@
       <c r="GK67" t="n">
         <v>5</v>
       </c>
+      <c r="GL67" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM67" t="n">
+        <v>7</v>
+      </c>
+      <c r="GN67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -39996,6 +40599,15 @@
       <c r="GK68" t="n">
         <v>4</v>
       </c>
+      <c r="GL68" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM68" t="n">
+        <v>9</v>
+      </c>
+      <c r="GN68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -40579,6 +41191,15 @@
       <c r="GK69" t="n">
         <v>3</v>
       </c>
+      <c r="GL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -41162,6 +41783,15 @@
       <c r="GK70" t="n">
         <v>14</v>
       </c>
+      <c r="GL70" t="n">
+        <v>18</v>
+      </c>
+      <c r="GM70" t="n">
+        <v>23</v>
+      </c>
+      <c r="GN70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -41745,6 +42375,15 @@
       <c r="GK71" t="n">
         <v>50</v>
       </c>
+      <c r="GL71" t="n">
+        <v>50</v>
+      </c>
+      <c r="GM71" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="GN71" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -42328,6 +42967,15 @@
       <c r="GK72" t="n">
         <v>37.29</v>
       </c>
+      <c r="GL72" t="n">
+        <v>33.89</v>
+      </c>
+      <c r="GM72" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="GN72" t="n">
+        <v>39.17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -42911,6 +43559,15 @@
       <c r="GK73" t="n">
         <v>18.64</v>
       </c>
+      <c r="GL73" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="GM73" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="GN73" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -43494,6 +44151,15 @@
       <c r="GK74" t="n">
         <v>33</v>
       </c>
+      <c r="GL74" t="n">
+        <v>41</v>
+      </c>
+      <c r="GM74" t="n">
+        <v>36</v>
+      </c>
+      <c r="GN74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -44077,6 +44743,15 @@
       <c r="GK75" t="n">
         <v>53</v>
       </c>
+      <c r="GL75" t="n">
+        <v>48</v>
+      </c>
+      <c r="GM75" t="n">
+        <v>50</v>
+      </c>
+      <c r="GN75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -44660,6 +45335,15 @@
       <c r="GK76" t="n">
         <v>13</v>
       </c>
+      <c r="GL76" t="n">
+        <v>26</v>
+      </c>
+      <c r="GM76" t="n">
+        <v>23</v>
+      </c>
+      <c r="GN76" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -45243,6 +45927,15 @@
       <c r="GK77" t="n">
         <v>38</v>
       </c>
+      <c r="GL77" t="n">
+        <v>51</v>
+      </c>
+      <c r="GM77" t="n">
+        <v>56</v>
+      </c>
+      <c r="GN77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -45826,6 +46519,15 @@
       <c r="GK78" t="n">
         <v>2.71</v>
       </c>
+      <c r="GL78" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="GM78" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="GN78" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -46409,6 +47111,15 @@
       <c r="GK79" t="n">
         <v>5.43</v>
       </c>
+      <c r="GL79" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="GM79" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="GN79" t="n">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -46992,6 +47703,15 @@
       <c r="GK80" t="n">
         <v>28.9</v>
       </c>
+      <c r="GL80" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="GM80" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="GN80" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -47575,6 +48295,15 @@
       <c r="GK81" t="n">
         <v>18.4</v>
       </c>
+      <c r="GL81" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="GM81" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="GN81" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -48158,6 +48887,15 @@
       <c r="GK82" t="n">
         <v>188.2</v>
       </c>
+      <c r="GL82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="GM82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="GN82" t="n">
+        <v>185.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -48741,6 +49479,15 @@
       <c r="GK83" t="n">
         <v>87.5</v>
       </c>
+      <c r="GL83" t="n">
+        <v>85</v>
+      </c>
+      <c r="GM83" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="GN83" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -49324,6 +50071,15 @@
       <c r="GK84" t="n">
         <v>27.8</v>
       </c>
+      <c r="GL84" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="GM84" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="GN84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -49907,6 +50663,15 @@
       <c r="GK85" t="n">
         <v>136.6</v>
       </c>
+      <c r="GL85" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="GM85" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="GN85" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -50490,6 +51255,15 @@
       <c r="GK86" t="n">
         <v>4</v>
       </c>
+      <c r="GL86" t="n">
+        <v>4</v>
+      </c>
+      <c r="GM86" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -51073,6 +51847,15 @@
       <c r="GK87" t="n">
         <v>6</v>
       </c>
+      <c r="GL87" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM87" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -51656,6 +52439,15 @@
       <c r="GK88" t="n">
         <v>1</v>
       </c>
+      <c r="GL88" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM88" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -52239,6 +53031,15 @@
       <c r="GK89" t="n">
         <v>11</v>
       </c>
+      <c r="GL89" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM89" t="n">
+        <v>6</v>
+      </c>
+      <c r="GN89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -52822,6 +53623,15 @@
       <c r="GK90" t="n">
         <v>94</v>
       </c>
+      <c r="GL90" t="n">
+        <v>131</v>
+      </c>
+      <c r="GM90" t="n">
+        <v>109</v>
+      </c>
+      <c r="GN90" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -53405,6 +54215,15 @@
       <c r="GK91" t="n">
         <v>161</v>
       </c>
+      <c r="GL91" t="n">
+        <v>167</v>
+      </c>
+      <c r="GM91" t="n">
+        <v>172</v>
+      </c>
+      <c r="GN91" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -53988,6 +54807,15 @@
       <c r="GK92" t="n">
         <v>182</v>
       </c>
+      <c r="GL92" t="n">
+        <v>215</v>
+      </c>
+      <c r="GM92" t="n">
+        <v>204</v>
+      </c>
+      <c r="GN92" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -54571,6 +55399,15 @@
       <c r="GK93" t="n">
         <v>69.7</v>
       </c>
+      <c r="GL93" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="GM93" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="GN93" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -55154,6 +55991,15 @@
       <c r="GK94" t="n">
         <v>53</v>
       </c>
+      <c r="GL94" t="n">
+        <v>48</v>
+      </c>
+      <c r="GM94" t="n">
+        <v>50</v>
+      </c>
+      <c r="GN94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -55737,6 +56583,15 @@
       <c r="GK95" t="n">
         <v>5</v>
       </c>
+      <c r="GL95" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM95" t="n">
+        <v>10</v>
+      </c>
+      <c r="GN95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -56320,6 +57175,15 @@
       <c r="GK96" t="n">
         <v>10</v>
       </c>
+      <c r="GL96" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM96" t="n">
+        <v>11</v>
+      </c>
+      <c r="GN96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -56903,6 +57767,15 @@
       <c r="GK97" t="n">
         <v>33</v>
       </c>
+      <c r="GL97" t="n">
+        <v>41</v>
+      </c>
+      <c r="GM97" t="n">
+        <v>36</v>
+      </c>
+      <c r="GN97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -57486,6 +58359,15 @@
       <c r="GK98" t="n">
         <v>13</v>
       </c>
+      <c r="GL98" t="n">
+        <v>26</v>
+      </c>
+      <c r="GM98" t="n">
+        <v>23</v>
+      </c>
+      <c r="GN98" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -58069,6 +58951,15 @@
       <c r="GK99" t="n">
         <v>27</v>
       </c>
+      <c r="GL99" t="n">
+        <v>49</v>
+      </c>
+      <c r="GM99" t="n">
+        <v>32</v>
+      </c>
+      <c r="GN99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -58652,6 +59543,15 @@
       <c r="GK100" t="n">
         <v>3</v>
       </c>
+      <c r="GL100" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM100" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -59235,6 +60135,15 @@
       <c r="GK101" t="n">
         <v>5</v>
       </c>
+      <c r="GL101" t="n">
+        <v>6</v>
+      </c>
+      <c r="GM101" t="n">
+        <v>7</v>
+      </c>
+      <c r="GN101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -59818,6 +60727,15 @@
       <c r="GK102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="GL102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GM102" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="GN102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GN102"/>
+  <dimension ref="A1:GO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,6 +944,9 @@
       <c r="GN1" t="n">
         <v>10228</v>
       </c>
+      <c r="GO1" t="n">
+        <v>10243</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1536,6 +1539,9 @@
       <c r="GN2" t="n">
         <v>2020</v>
       </c>
+      <c r="GO2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2128,6 +2134,9 @@
       <c r="GN3" t="n">
         <v>8</v>
       </c>
+      <c r="GO3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2720,6 +2729,9 @@
       <c r="GN4" t="n">
         <v>0</v>
       </c>
+      <c r="GO4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3312,6 +3324,9 @@
       <c r="GN5" t="n">
         <v>0</v>
       </c>
+      <c r="GO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3904,6 +3919,9 @@
       <c r="GN6" t="n">
         <v>62</v>
       </c>
+      <c r="GO6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4496,6 +4514,9 @@
       <c r="GN7" t="n">
         <v>50</v>
       </c>
+      <c r="GO7" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5088,6 +5109,9 @@
       <c r="GN8" t="n">
         <v>12</v>
       </c>
+      <c r="GO8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5680,6 +5704,9 @@
       <c r="GN9" t="n">
         <v>1</v>
       </c>
+      <c r="GO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6272,6 +6299,9 @@
       <c r="GN10" t="n">
         <v>14</v>
       </c>
+      <c r="GO10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6864,6 +6894,9 @@
       <c r="GN11" t="n">
         <v>178</v>
       </c>
+      <c r="GO11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7456,6 +7489,9 @@
       <c r="GN12" t="n">
         <v>104</v>
       </c>
+      <c r="GO12" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8048,6 +8084,9 @@
       <c r="GN13" t="n">
         <v>282</v>
       </c>
+      <c r="GO13" t="n">
+        <v>348</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8640,6 +8679,9 @@
       <c r="GN14" t="n">
         <v>1.71</v>
       </c>
+      <c r="GO14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9232,6 +9274,9 @@
       <c r="GN15" t="n">
         <v>71</v>
       </c>
+      <c r="GO15" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9824,6 +9869,9 @@
       <c r="GN16" t="n">
         <v>68</v>
       </c>
+      <c r="GO16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10416,6 +10464,9 @@
       <c r="GN17" t="n">
         <v>29</v>
       </c>
+      <c r="GO17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11008,6 +11059,9 @@
       <c r="GN18" t="n">
         <v>22</v>
       </c>
+      <c r="GO18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11600,6 +11654,9 @@
       <c r="GN19" t="n">
         <v>20</v>
       </c>
+      <c r="GO19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12192,6 +12249,9 @@
       <c r="GN20" t="n">
         <v>9</v>
       </c>
+      <c r="GO20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12784,6 +12844,9 @@
       <c r="GN21" t="n">
         <v>5</v>
       </c>
+      <c r="GO21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13376,6 +13439,9 @@
       <c r="GN22" t="n">
         <v>7</v>
       </c>
+      <c r="GO22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13968,6 +14034,9 @@
       <c r="GN23" t="n">
         <v>1</v>
       </c>
+      <c r="GO23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14560,6 +14629,9 @@
       <c r="GN24" t="n">
         <v>17</v>
       </c>
+      <c r="GO24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15152,6 +15224,9 @@
       <c r="GN25" t="n">
         <v>52.9</v>
       </c>
+      <c r="GO25" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15744,6 +15819,9 @@
       <c r="GN26" t="n">
         <v>31.33</v>
       </c>
+      <c r="GO26" t="n">
+        <v>38.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16336,6 +16414,9 @@
       <c r="GN27" t="n">
         <v>16.59</v>
       </c>
+      <c r="GO27" t="n">
+        <v>21.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -16928,6 +17009,9 @@
       <c r="GN28" t="n">
         <v>37</v>
       </c>
+      <c r="GO28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17520,6 +17604,9 @@
       <c r="GN29" t="n">
         <v>45</v>
       </c>
+      <c r="GO29" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18112,6 +18199,9 @@
       <c r="GN30" t="n">
         <v>38</v>
       </c>
+      <c r="GO30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18704,6 +18794,9 @@
       <c r="GN31" t="n">
         <v>32</v>
       </c>
+      <c r="GO31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19296,6 +19389,9 @@
       <c r="GN32" t="n">
         <v>1.88</v>
       </c>
+      <c r="GO32" t="n">
+        <v>2.81</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19888,6 +19984,9 @@
       <c r="GN33" t="n">
         <v>3.56</v>
       </c>
+      <c r="GO33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20480,6 +20579,9 @@
       <c r="GN34" t="n">
         <v>50</v>
       </c>
+      <c r="GO34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21072,6 +21174,9 @@
       <c r="GN35" t="n">
         <v>28.1</v>
       </c>
+      <c r="GO35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21664,6 +21769,9 @@
       <c r="GN36" t="n">
         <v>188.3</v>
       </c>
+      <c r="GO36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22256,6 +22364,9 @@
       <c r="GN37" t="n">
         <v>87.7</v>
       </c>
+      <c r="GO37" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22848,6 +22959,9 @@
       <c r="GN38" t="n">
         <v>26.8</v>
       </c>
+      <c r="GO38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -23440,6 +23554,9 @@
       <c r="GN39" t="n">
         <v>105.8</v>
       </c>
+      <c r="GO39" t="n">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24032,6 +24149,9 @@
       <c r="GN40" t="n">
         <v>7</v>
       </c>
+      <c r="GO40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -24624,6 +24744,9 @@
       <c r="GN41" t="n">
         <v>5</v>
       </c>
+      <c r="GO41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25216,6 +25339,9 @@
       <c r="GN42" t="n">
         <v>4</v>
       </c>
+      <c r="GO42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -25808,6 +25934,9 @@
       <c r="GN43" t="n">
         <v>6</v>
       </c>
+      <c r="GO43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -26400,6 +26529,9 @@
       <c r="GN44" t="n">
         <v>122</v>
       </c>
+      <c r="GO44" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -26992,6 +27124,9 @@
       <c r="GN45" t="n">
         <v>145</v>
       </c>
+      <c r="GO45" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -27584,6 +27719,9 @@
       <c r="GN46" t="n">
         <v>191</v>
       </c>
+      <c r="GO46" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -28176,6 +28314,9 @@
       <c r="GN47" t="n">
         <v>67.7</v>
       </c>
+      <c r="GO47" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -28768,6 +28909,9 @@
       <c r="GN48" t="n">
         <v>45</v>
       </c>
+      <c r="GO48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -29360,6 +29504,9 @@
       <c r="GN49" t="n">
         <v>8</v>
       </c>
+      <c r="GO49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -29952,6 +30099,9 @@
       <c r="GN50" t="n">
         <v>8</v>
       </c>
+      <c r="GO50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -30544,6 +30694,9 @@
       <c r="GN51" t="n">
         <v>37</v>
       </c>
+      <c r="GO51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -31136,6 +31289,9 @@
       <c r="GN52" t="n">
         <v>38</v>
       </c>
+      <c r="GO52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -31728,6 +31884,9 @@
       <c r="GN53" t="n">
         <v>44</v>
       </c>
+      <c r="GO53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -32320,6 +32479,9 @@
       <c r="GN54" t="n">
         <v>2</v>
       </c>
+      <c r="GO54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -32912,6 +33074,9 @@
       <c r="GN55" t="n">
         <v>5</v>
       </c>
+      <c r="GO55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -33504,6 +33669,9 @@
       <c r="GN56" t="n">
         <v>55.6</v>
       </c>
+      <c r="GO56" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -34096,6 +34264,9 @@
       <c r="GN57" t="n">
         <v>146</v>
       </c>
+      <c r="GO57" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -34688,6 +34859,9 @@
       <c r="GN58" t="n">
         <v>89</v>
       </c>
+      <c r="GO58" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -35280,6 +35454,9 @@
       <c r="GN59" t="n">
         <v>235</v>
       </c>
+      <c r="GO59" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -35872,6 +36049,9 @@
       <c r="GN60" t="n">
         <v>1.64</v>
       </c>
+      <c r="GO60" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -36464,6 +36644,9 @@
       <c r="GN61" t="n">
         <v>56</v>
       </c>
+      <c r="GO61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -37056,6 +37239,9 @@
       <c r="GN62" t="n">
         <v>54</v>
       </c>
+      <c r="GO62" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -37648,6 +37834,9 @@
       <c r="GN63" t="n">
         <v>44</v>
       </c>
+      <c r="GO63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -38240,6 +38429,9 @@
       <c r="GN64" t="n">
         <v>20</v>
       </c>
+      <c r="GO64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -38832,6 +39024,9 @@
       <c r="GN65" t="n">
         <v>22</v>
       </c>
+      <c r="GO65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -39424,6 +39619,9 @@
       <c r="GN66" t="n">
         <v>6</v>
       </c>
+      <c r="GO66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -40016,6 +40214,9 @@
       <c r="GN67" t="n">
         <v>3</v>
       </c>
+      <c r="GO67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -40608,6 +40809,9 @@
       <c r="GN68" t="n">
         <v>11</v>
       </c>
+      <c r="GO68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -41200,6 +41404,9 @@
       <c r="GN69" t="n">
         <v>3</v>
       </c>
+      <c r="GO69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -41792,6 +41999,9 @@
       <c r="GN70" t="n">
         <v>20</v>
       </c>
+      <c r="GO70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -42384,6 +42594,9 @@
       <c r="GN71" t="n">
         <v>30</v>
       </c>
+      <c r="GO71" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -42976,6 +43189,9 @@
       <c r="GN72" t="n">
         <v>39.17</v>
       </c>
+      <c r="GO72" t="n">
+        <v>67.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -43568,6 +43784,9 @@
       <c r="GN73" t="n">
         <v>11.75</v>
       </c>
+      <c r="GO73" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -44160,6 +44379,9 @@
       <c r="GN74" t="n">
         <v>29</v>
       </c>
+      <c r="GO74" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -44752,6 +44974,9 @@
       <c r="GN75" t="n">
         <v>51</v>
       </c>
+      <c r="GO75" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -45344,6 +45569,9 @@
       <c r="GN76" t="n">
         <v>21</v>
       </c>
+      <c r="GO76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -45936,6 +46164,9 @@
       <c r="GN77" t="n">
         <v>46</v>
       </c>
+      <c r="GO77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -46528,6 +46759,9 @@
       <c r="GN78" t="n">
         <v>2.3</v>
       </c>
+      <c r="GO78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -47120,6 +47354,9 @@
       <c r="GN79" t="n">
         <v>7.67</v>
       </c>
+      <c r="GO79" t="n">
+        <v>9.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -47712,6 +47949,9 @@
       <c r="GN80" t="n">
         <v>37</v>
       </c>
+      <c r="GO80" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -48304,6 +48544,9 @@
       <c r="GN81" t="n">
         <v>13</v>
       </c>
+      <c r="GO81" t="n">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -48896,6 +49139,9 @@
       <c r="GN82" t="n">
         <v>185.7</v>
       </c>
+      <c r="GO82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -49488,6 +49734,9 @@
       <c r="GN83" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="GO83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -50080,6 +50329,9 @@
       <c r="GN84" t="n">
         <v>25.8</v>
       </c>
+      <c r="GO84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -50672,6 +50924,9 @@
       <c r="GN85" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="GO85" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -51264,6 +51519,9 @@
       <c r="GN86" t="n">
         <v>11</v>
       </c>
+      <c r="GO86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -51856,6 +52114,9 @@
       <c r="GN87" t="n">
         <v>5</v>
       </c>
+      <c r="GO87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -52448,6 +52709,9 @@
       <c r="GN88" t="n">
         <v>2</v>
       </c>
+      <c r="GO88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -53040,6 +53304,9 @@
       <c r="GN89" t="n">
         <v>4</v>
       </c>
+      <c r="GO89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -53632,6 +53899,9 @@
       <c r="GN90" t="n">
         <v>105</v>
       </c>
+      <c r="GO90" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -54224,6 +54494,9 @@
       <c r="GN91" t="n">
         <v>130</v>
       </c>
+      <c r="GO91" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -54816,6 +55089,9 @@
       <c r="GN92" t="n">
         <v>155</v>
       </c>
+      <c r="GO92" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -55408,6 +55684,9 @@
       <c r="GN93" t="n">
         <v>66</v>
       </c>
+      <c r="GO93" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -56000,6 +56279,9 @@
       <c r="GN94" t="n">
         <v>51</v>
       </c>
+      <c r="GO94" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -56592,6 +56874,9 @@
       <c r="GN95" t="n">
         <v>5</v>
       </c>
+      <c r="GO95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -57184,6 +57469,9 @@
       <c r="GN96" t="n">
         <v>6</v>
       </c>
+      <c r="GO96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -57776,6 +58064,9 @@
       <c r="GN97" t="n">
         <v>29</v>
       </c>
+      <c r="GO97" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -58368,6 +58659,9 @@
       <c r="GN98" t="n">
         <v>21</v>
       </c>
+      <c r="GO98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -58960,6 +59254,9 @@
       <c r="GN99" t="n">
         <v>32</v>
       </c>
+      <c r="GO99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -59552,6 +59849,9 @@
       <c r="GN100" t="n">
         <v>5</v>
       </c>
+      <c r="GO100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -60144,6 +60444,9 @@
       <c r="GN101" t="n">
         <v>3</v>
       </c>
+      <c r="GO101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -60736,8 +61039,11 @@
       <c r="GN102" t="n">
         <v>50</v>
       </c>
+      <c r="GO102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO102"/>
+  <dimension ref="A1:GQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,12 @@
       <c r="GO1" t="n">
         <v>10243</v>
       </c>
+      <c r="GP1" t="n">
+        <v>10251</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>10260</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1542,6 +1548,12 @@
       <c r="GO2" t="n">
         <v>2020</v>
       </c>
+      <c r="GP2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2137,6 +2149,12 @@
       <c r="GO3" t="n">
         <v>9</v>
       </c>
+      <c r="GP3" t="n">
+        <v>10</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2732,6 +2750,12 @@
       <c r="GO4" t="n">
         <v>1</v>
       </c>
+      <c r="GP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3327,6 +3351,12 @@
       <c r="GO5" t="n">
         <v>1</v>
       </c>
+      <c r="GP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3922,6 +3952,12 @@
       <c r="GO6" t="n">
         <v>61</v>
       </c>
+      <c r="GP6" t="n">
+        <v>59</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4517,6 +4553,12 @@
       <c r="GO7" t="n">
         <v>35</v>
       </c>
+      <c r="GP7" t="n">
+        <v>55</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5112,6 +5154,12 @@
       <c r="GO8" t="n">
         <v>26</v>
       </c>
+      <c r="GP8" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>-41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5707,6 +5755,12 @@
       <c r="GO9" t="n">
         <v>1</v>
       </c>
+      <c r="GP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6302,6 +6356,12 @@
       <c r="GO10" t="n">
         <v>8</v>
       </c>
+      <c r="GP10" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6897,6 +6957,12 @@
       <c r="GO11" t="n">
         <v>209</v>
       </c>
+      <c r="GP11" t="n">
+        <v>175</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7492,6 +7558,12 @@
       <c r="GO12" t="n">
         <v>139</v>
       </c>
+      <c r="GP12" t="n">
+        <v>131</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8087,6 +8159,12 @@
       <c r="GO13" t="n">
         <v>348</v>
       </c>
+      <c r="GP13" t="n">
+        <v>306</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8682,6 +8760,12 @@
       <c r="GO14" t="n">
         <v>1.5</v>
       </c>
+      <c r="GP14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="GQ14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9277,6 +9361,12 @@
       <c r="GO15" t="n">
         <v>93</v>
       </c>
+      <c r="GP15" t="n">
+        <v>55</v>
+      </c>
+      <c r="GQ15" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9872,6 +9962,12 @@
       <c r="GO16" t="n">
         <v>46</v>
       </c>
+      <c r="GP16" t="n">
+        <v>55</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10467,6 +10563,12 @@
       <c r="GO17" t="n">
         <v>20</v>
       </c>
+      <c r="GP17" t="n">
+        <v>39</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11062,6 +11164,12 @@
       <c r="GO18" t="n">
         <v>17</v>
       </c>
+      <c r="GP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="GQ18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11657,6 +11765,12 @@
       <c r="GO19" t="n">
         <v>10</v>
       </c>
+      <c r="GP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="GQ19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12252,6 +12366,12 @@
       <c r="GO20" t="n">
         <v>9</v>
       </c>
+      <c r="GP20" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12847,6 +12967,12 @@
       <c r="GO21" t="n">
         <v>8</v>
       </c>
+      <c r="GP21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GQ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13442,6 +13568,12 @@
       <c r="GO22" t="n">
         <v>6</v>
       </c>
+      <c r="GP22" t="n">
+        <v>7</v>
+      </c>
+      <c r="GQ22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14037,6 +14169,12 @@
       <c r="GO23" t="n">
         <v>1</v>
       </c>
+      <c r="GP23" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14632,6 +14770,12 @@
       <c r="GO24" t="n">
         <v>16</v>
       </c>
+      <c r="GP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15227,6 +15371,12 @@
       <c r="GO25" t="n">
         <v>56.2</v>
       </c>
+      <c r="GP25" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="GQ25" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15822,6 +15972,12 @@
       <c r="GO26" t="n">
         <v>38.67</v>
       </c>
+      <c r="GP26" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="GQ26" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16417,6 +16573,12 @@
       <c r="GO27" t="n">
         <v>21.75</v>
       </c>
+      <c r="GP27" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="GQ27" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17012,6 +17174,12 @@
       <c r="GO28" t="n">
         <v>28</v>
       </c>
+      <c r="GP28" t="n">
+        <v>36</v>
+      </c>
+      <c r="GQ28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17607,6 +17775,12 @@
       <c r="GO29" t="n">
         <v>46</v>
       </c>
+      <c r="GP29" t="n">
+        <v>51</v>
+      </c>
+      <c r="GQ29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18202,6 +18376,12 @@
       <c r="GO30" t="n">
         <v>34</v>
       </c>
+      <c r="GP30" t="n">
+        <v>31</v>
+      </c>
+      <c r="GQ30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18797,6 +18977,12 @@
       <c r="GO31" t="n">
         <v>45</v>
       </c>
+      <c r="GP31" t="n">
+        <v>47</v>
+      </c>
+      <c r="GQ31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19392,6 +19578,12 @@
       <c r="GO32" t="n">
         <v>2.81</v>
       </c>
+      <c r="GP32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="GQ32" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19987,6 +20179,12 @@
       <c r="GO33" t="n">
         <v>5</v>
       </c>
+      <c r="GP33" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="GQ33" t="n">
+        <v>17.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20582,6 +20780,12 @@
       <c r="GO34" t="n">
         <v>33.3</v>
       </c>
+      <c r="GP34" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="GQ34" t="n">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21177,6 +21381,12 @@
       <c r="GO35" t="n">
         <v>20</v>
       </c>
+      <c r="GP35" t="n">
+        <v>17</v>
+      </c>
+      <c r="GQ35" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21772,6 +21982,12 @@
       <c r="GO36" t="n">
         <v>188.2</v>
       </c>
+      <c r="GP36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="GQ36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22367,6 +22583,12 @@
       <c r="GO37" t="n">
         <v>87.7</v>
       </c>
+      <c r="GP37" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="GQ37" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22962,6 +23184,12 @@
       <c r="GO38" t="n">
         <v>26</v>
       </c>
+      <c r="GP38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="GQ38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -23557,6 +23785,12 @@
       <c r="GO39" t="n">
         <v>109.5</v>
       </c>
+      <c r="GP39" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="GQ39" t="n">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24152,6 +24386,12 @@
       <c r="GO40" t="n">
         <v>6</v>
       </c>
+      <c r="GP40" t="n">
+        <v>7</v>
+      </c>
+      <c r="GQ40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -24747,6 +24987,12 @@
       <c r="GO41" t="n">
         <v>5</v>
       </c>
+      <c r="GP41" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25342,6 +25588,12 @@
       <c r="GO42" t="n">
         <v>5</v>
       </c>
+      <c r="GP42" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -25937,6 +26189,12 @@
       <c r="GO43" t="n">
         <v>6</v>
       </c>
+      <c r="GP43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -26532,6 +26790,12 @@
       <c r="GO44" t="n">
         <v>131</v>
       </c>
+      <c r="GP44" t="n">
+        <v>114</v>
+      </c>
+      <c r="GQ44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27127,6 +27391,12 @@
       <c r="GO45" t="n">
         <v>216</v>
       </c>
+      <c r="GP45" t="n">
+        <v>184</v>
+      </c>
+      <c r="GQ45" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -27722,6 +27992,12 @@
       <c r="GO46" t="n">
         <v>256</v>
       </c>
+      <c r="GP46" t="n">
+        <v>204</v>
+      </c>
+      <c r="GQ46" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -28317,6 +28593,12 @@
       <c r="GO47" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="GP47" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GQ47" t="n">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -28912,6 +29194,12 @@
       <c r="GO48" t="n">
         <v>46</v>
       </c>
+      <c r="GP48" t="n">
+        <v>51</v>
+      </c>
+      <c r="GQ48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -29507,6 +29795,12 @@
       <c r="GO49" t="n">
         <v>10</v>
       </c>
+      <c r="GP49" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -30102,6 +30396,12 @@
       <c r="GO50" t="n">
         <v>10</v>
       </c>
+      <c r="GP50" t="n">
+        <v>7</v>
+      </c>
+      <c r="GQ50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -30697,6 +30997,12 @@
       <c r="GO51" t="n">
         <v>28</v>
       </c>
+      <c r="GP51" t="n">
+        <v>36</v>
+      </c>
+      <c r="GQ51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -31292,6 +31598,12 @@
       <c r="GO52" t="n">
         <v>34</v>
       </c>
+      <c r="GP52" t="n">
+        <v>31</v>
+      </c>
+      <c r="GQ52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -31887,6 +32199,12 @@
       <c r="GO53" t="n">
         <v>51</v>
       </c>
+      <c r="GP53" t="n">
+        <v>59</v>
+      </c>
+      <c r="GQ53" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -32482,6 +32800,12 @@
       <c r="GO54" t="n">
         <v>4</v>
       </c>
+      <c r="GP54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -33077,6 +33401,12 @@
       <c r="GO55" t="n">
         <v>8</v>
       </c>
+      <c r="GP55" t="n">
+        <v>6</v>
+      </c>
+      <c r="GQ55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -33672,6 +34002,12 @@
       <c r="GO56" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="GP56" t="n">
+        <v>75</v>
+      </c>
+      <c r="GQ56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -34267,6 +34603,12 @@
       <c r="GO57" t="n">
         <v>169</v>
       </c>
+      <c r="GP57" t="n">
+        <v>183</v>
+      </c>
+      <c r="GQ57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -34862,6 +35204,12 @@
       <c r="GO58" t="n">
         <v>100</v>
       </c>
+      <c r="GP58" t="n">
+        <v>124</v>
+      </c>
+      <c r="GQ58" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -35457,6 +35805,12 @@
       <c r="GO59" t="n">
         <v>269</v>
       </c>
+      <c r="GP59" t="n">
+        <v>307</v>
+      </c>
+      <c r="GQ59" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -36052,6 +36406,12 @@
       <c r="GO60" t="n">
         <v>1.69</v>
       </c>
+      <c r="GP60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="GQ60" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -36647,6 +37007,12 @@
       <c r="GO61" t="n">
         <v>71</v>
       </c>
+      <c r="GP61" t="n">
+        <v>69</v>
+      </c>
+      <c r="GQ61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -37242,6 +37608,12 @@
       <c r="GO62" t="n">
         <v>38</v>
       </c>
+      <c r="GP62" t="n">
+        <v>44</v>
+      </c>
+      <c r="GQ62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -37837,6 +38209,12 @@
       <c r="GO63" t="n">
         <v>27</v>
       </c>
+      <c r="GP63" t="n">
+        <v>22</v>
+      </c>
+      <c r="GQ63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -38432,6 +38810,12 @@
       <c r="GO64" t="n">
         <v>10</v>
       </c>
+      <c r="GP64" t="n">
+        <v>19</v>
+      </c>
+      <c r="GQ64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -39027,6 +39411,12 @@
       <c r="GO65" t="n">
         <v>17</v>
       </c>
+      <c r="GP65" t="n">
+        <v>26</v>
+      </c>
+      <c r="GQ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -39622,6 +40012,12 @@
       <c r="GO66" t="n">
         <v>4</v>
       </c>
+      <c r="GP66" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -40217,6 +40613,12 @@
       <c r="GO67" t="n">
         <v>2</v>
       </c>
+      <c r="GP67" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -40812,6 +41214,12 @@
       <c r="GO68" t="n">
         <v>8</v>
       </c>
+      <c r="GP68" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -41407,6 +41815,12 @@
       <c r="GO69" t="n">
         <v>3</v>
       </c>
+      <c r="GP69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -42002,6 +42416,12 @@
       <c r="GO70" t="n">
         <v>15</v>
       </c>
+      <c r="GP70" t="n">
+        <v>15</v>
+      </c>
+      <c r="GQ70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -42597,6 +43017,12 @@
       <c r="GO71" t="n">
         <v>26.7</v>
       </c>
+      <c r="GP71" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="GQ71" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -43192,6 +43618,12 @@
       <c r="GO72" t="n">
         <v>67.25</v>
       </c>
+      <c r="GP72" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="GQ72" t="n">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -43787,6 +44219,12 @@
       <c r="GO73" t="n">
         <v>17.93</v>
       </c>
+      <c r="GP73" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="GQ73" t="n">
+        <v>18.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -44382,6 +44820,12 @@
       <c r="GO74" t="n">
         <v>20</v>
       </c>
+      <c r="GP74" t="n">
+        <v>36</v>
+      </c>
+      <c r="GQ74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -44977,6 +45421,12 @@
       <c r="GO75" t="n">
         <v>45</v>
       </c>
+      <c r="GP75" t="n">
+        <v>64</v>
+      </c>
+      <c r="GQ75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -45572,6 +46022,12 @@
       <c r="GO76" t="n">
         <v>35</v>
       </c>
+      <c r="GP76" t="n">
+        <v>39</v>
+      </c>
+      <c r="GQ76" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -46167,6 +46623,12 @@
       <c r="GO77" t="n">
         <v>39</v>
       </c>
+      <c r="GP77" t="n">
+        <v>39</v>
+      </c>
+      <c r="GQ77" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -46762,6 +47224,12 @@
       <c r="GO78" t="n">
         <v>2.6</v>
       </c>
+      <c r="GP78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="GQ78" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -47357,6 +47825,12 @@
       <c r="GO79" t="n">
         <v>9.75</v>
       </c>
+      <c r="GP79" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="GQ79" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -47952,6 +48426,12 @@
       <c r="GO80" t="n">
         <v>30.8</v>
       </c>
+      <c r="GP80" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="GQ80" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -48547,6 +49027,12 @@
       <c r="GO81" t="n">
         <v>10.3</v>
       </c>
+      <c r="GP81" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="GQ81" t="n">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -49142,6 +49628,12 @@
       <c r="GO82" t="n">
         <v>186.9</v>
       </c>
+      <c r="GP82" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="GQ82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -49737,6 +50229,12 @@
       <c r="GO83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="GP83" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="GQ83" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -50332,6 +50830,12 @@
       <c r="GO84" t="n">
         <v>24.49</v>
       </c>
+      <c r="GP84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="GQ84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -50927,6 +51431,12 @@
       <c r="GO85" t="n">
         <v>80</v>
       </c>
+      <c r="GP85" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="GQ85" t="n">
+        <v>68.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -51522,6 +52032,12 @@
       <c r="GO86" t="n">
         <v>9</v>
       </c>
+      <c r="GP86" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -52117,6 +52633,12 @@
       <c r="GO87" t="n">
         <v>5</v>
       </c>
+      <c r="GP87" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -52712,6 +53234,12 @@
       <c r="GO88" t="n">
         <v>5</v>
       </c>
+      <c r="GP88" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -53307,6 +53835,12 @@
       <c r="GO89" t="n">
         <v>3</v>
       </c>
+      <c r="GP89" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -53902,6 +54436,12 @@
       <c r="GO90" t="n">
         <v>111</v>
       </c>
+      <c r="GP90" t="n">
+        <v>120</v>
+      </c>
+      <c r="GQ90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -54497,6 +55037,12 @@
       <c r="GO91" t="n">
         <v>150</v>
       </c>
+      <c r="GP91" t="n">
+        <v>173</v>
+      </c>
+      <c r="GQ91" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -55092,6 +55638,12 @@
       <c r="GO92" t="n">
         <v>173</v>
       </c>
+      <c r="GP92" t="n">
+        <v>200</v>
+      </c>
+      <c r="GQ92" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -55687,6 +56239,12 @@
       <c r="GO93" t="n">
         <v>64.3</v>
       </c>
+      <c r="GP93" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="GQ93" t="n">
+        <v>64.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -56282,6 +56840,12 @@
       <c r="GO94" t="n">
         <v>45</v>
       </c>
+      <c r="GP94" t="n">
+        <v>64</v>
+      </c>
+      <c r="GQ94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -56877,6 +57441,12 @@
       <c r="GO95" t="n">
         <v>9</v>
       </c>
+      <c r="GP95" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -57472,6 +58042,12 @@
       <c r="GO96" t="n">
         <v>9</v>
       </c>
+      <c r="GP96" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -58067,6 +58643,12 @@
       <c r="GO97" t="n">
         <v>20</v>
       </c>
+      <c r="GP97" t="n">
+        <v>36</v>
+      </c>
+      <c r="GQ97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -58662,6 +59244,12 @@
       <c r="GO98" t="n">
         <v>35</v>
       </c>
+      <c r="GP98" t="n">
+        <v>39</v>
+      </c>
+      <c r="GQ98" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -59257,6 +59845,12 @@
       <c r="GO99" t="n">
         <v>35</v>
       </c>
+      <c r="GP99" t="n">
+        <v>44</v>
+      </c>
+      <c r="GQ99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -59852,6 +60446,12 @@
       <c r="GO100" t="n">
         <v>5</v>
       </c>
+      <c r="GP100" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -60447,6 +61047,12 @@
       <c r="GO101" t="n">
         <v>2</v>
       </c>
+      <c r="GP101" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -61042,8 +61648,14 @@
       <c r="GO102" t="n">
         <v>50</v>
       </c>
+      <c r="GP102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="GQ102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/GWS_stats.xlsx
+++ b/GWS_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ102"/>
+  <dimension ref="A1:GW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,6 +953,24 @@
       <c r="GQ1" t="n">
         <v>10260</v>
       </c>
+      <c r="GR1" t="n">
+        <v>10276</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>10282</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>10290</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>10297</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>10304</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>10310</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1554,6 +1572,24 @@
       <c r="GQ2" t="n">
         <v>2020</v>
       </c>
+      <c r="GR2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2155,6 +2191,24 @@
       <c r="GQ3" t="n">
         <v>12</v>
       </c>
+      <c r="GR3" t="n">
+        <v>13</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>14</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>15</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>16</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>17</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2756,6 +2810,24 @@
       <c r="GQ4" t="n">
         <v>1</v>
       </c>
+      <c r="GR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3357,6 +3429,24 @@
       <c r="GQ5" t="n">
         <v>0</v>
       </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3958,6 +4048,24 @@
       <c r="GQ6" t="n">
         <v>25</v>
       </c>
+      <c r="GR6" t="n">
+        <v>49</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>91</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>48</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>47</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>74</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4559,6 +4667,24 @@
       <c r="GQ7" t="n">
         <v>66</v>
       </c>
+      <c r="GR7" t="n">
+        <v>61</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>53</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>39</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>59</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>79</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5160,6 +5286,24 @@
       <c r="GQ8" t="n">
         <v>-41</v>
       </c>
+      <c r="GR8" t="n">
+        <v>-12</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>38</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>9</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>-12</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>-52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5761,6 +5905,24 @@
       <c r="GQ9" t="n">
         <v>0</v>
       </c>
+      <c r="GR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6362,6 +6524,24 @@
       <c r="GQ10" t="n">
         <v>16</v>
       </c>
+      <c r="GR10" t="n">
+        <v>17</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>11</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6963,6 +7143,24 @@
       <c r="GQ11" t="n">
         <v>160</v>
       </c>
+      <c r="GR11" t="n">
+        <v>182</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>199</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>178</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>173</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>169</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7564,6 +7762,24 @@
       <c r="GQ12" t="n">
         <v>98</v>
       </c>
+      <c r="GR12" t="n">
+        <v>150</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>104</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>118</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>119</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8165,6 +8381,24 @@
       <c r="GQ13" t="n">
         <v>258</v>
       </c>
+      <c r="GR13" t="n">
+        <v>332</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>350</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>282</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>291</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>288</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8766,6 +9000,24 @@
       <c r="GQ14" t="n">
         <v>1.63</v>
       </c>
+      <c r="GR14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="GS14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9367,6 +9619,24 @@
       <c r="GQ15" t="n">
         <v>43</v>
       </c>
+      <c r="GR15" t="n">
+        <v>93</v>
+      </c>
+      <c r="GS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>62</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>73</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>49</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9968,6 +10238,24 @@
       <c r="GQ16" t="n">
         <v>59</v>
       </c>
+      <c r="GR16" t="n">
+        <v>47</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>53</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>48</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>76</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10569,6 +10857,24 @@
       <c r="GQ17" t="n">
         <v>30</v>
       </c>
+      <c r="GR17" t="n">
+        <v>27</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>26</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>24</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>23</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>20</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11170,6 +11476,24 @@
       <c r="GQ18" t="n">
         <v>16</v>
       </c>
+      <c r="GR18" t="n">
+        <v>8</v>
+      </c>
+      <c r="GS18" t="n">
+        <v>17</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>13</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>15</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11771,6 +12095,24 @@
       <c r="GQ19" t="n">
         <v>16</v>
       </c>
+      <c r="GR19" t="n">
+        <v>11</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>20</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>13</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>16</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12372,6 +12714,24 @@
       <c r="GQ20" t="n">
         <v>3</v>
       </c>
+      <c r="GR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS20" t="n">
+        <v>14</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>11</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12973,6 +13333,24 @@
       <c r="GQ21" t="n">
         <v>0</v>
       </c>
+      <c r="GR21" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS21" t="n">
+        <v>11</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13574,6 +13952,24 @@
       <c r="GQ22" t="n">
         <v>6</v>
       </c>
+      <c r="GR22" t="n">
+        <v>5</v>
+      </c>
+      <c r="GS22" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>10</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14175,6 +14571,24 @@
       <c r="GQ23" t="n">
         <v>1</v>
       </c>
+      <c r="GR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14776,6 +15190,24 @@
       <c r="GQ24" t="n">
         <v>10</v>
       </c>
+      <c r="GR24" t="n">
+        <v>14</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>21</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>18</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>12</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>19</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15377,6 +15809,24 @@
       <c r="GQ25" t="n">
         <v>30</v>
       </c>
+      <c r="GR25" t="n">
+        <v>50</v>
+      </c>
+      <c r="GS25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15978,6 +16428,24 @@
       <c r="GQ26" t="n">
         <v>86</v>
       </c>
+      <c r="GR26" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="GS26" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>47</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>100.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16579,6 +17047,24 @@
       <c r="GQ27" t="n">
         <v>25.8</v>
       </c>
+      <c r="GR27" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="GS27" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="GT27" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="GU27" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="GV27" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>20.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17180,6 +17666,24 @@
       <c r="GQ28" t="n">
         <v>34</v>
       </c>
+      <c r="GR28" t="n">
+        <v>33</v>
+      </c>
+      <c r="GS28" t="n">
+        <v>34</v>
+      </c>
+      <c r="GT28" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU28" t="n">
+        <v>24</v>
+      </c>
+      <c r="GV28" t="n">
+        <v>32</v>
+      </c>
+      <c r="GW28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17781,6 +18285,24 @@
       <c r="GQ29" t="n">
         <v>48</v>
       </c>
+      <c r="GR29" t="n">
+        <v>42</v>
+      </c>
+      <c r="GS29" t="n">
+        <v>49</v>
+      </c>
+      <c r="GT29" t="n">
+        <v>57</v>
+      </c>
+      <c r="GU29" t="n">
+        <v>44</v>
+      </c>
+      <c r="GV29" t="n">
+        <v>52</v>
+      </c>
+      <c r="GW29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18382,6 +18904,24 @@
       <c r="GQ30" t="n">
         <v>22</v>
       </c>
+      <c r="GR30" t="n">
+        <v>26</v>
+      </c>
+      <c r="GS30" t="n">
+        <v>29</v>
+      </c>
+      <c r="GT30" t="n">
+        <v>44</v>
+      </c>
+      <c r="GU30" t="n">
+        <v>40</v>
+      </c>
+      <c r="GV30" t="n">
+        <v>27</v>
+      </c>
+      <c r="GW30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18983,6 +19523,24 @@
       <c r="GQ31" t="n">
         <v>52</v>
       </c>
+      <c r="GR31" t="n">
+        <v>41</v>
+      </c>
+      <c r="GS31" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT31" t="n">
+        <v>40</v>
+      </c>
+      <c r="GU31" t="n">
+        <v>26</v>
+      </c>
+      <c r="GV31" t="n">
+        <v>52</v>
+      </c>
+      <c r="GW31" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19584,6 +20142,24 @@
       <c r="GQ32" t="n">
         <v>5.2</v>
       </c>
+      <c r="GR32" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="GS32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="GT32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="GU32" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="GV32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="GW32" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20185,6 +20761,24 @@
       <c r="GQ33" t="n">
         <v>17.33</v>
       </c>
+      <c r="GR33" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="GS33" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="GT33" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20786,6 +21380,24 @@
       <c r="GQ34" t="n">
         <v>17.3</v>
       </c>
+      <c r="GR34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="GS34" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="GT34" t="n">
+        <v>40</v>
+      </c>
+      <c r="GU34" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="GV34" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="GW34" t="n">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21387,6 +21999,24 @@
       <c r="GQ35" t="n">
         <v>5.8</v>
       </c>
+      <c r="GR35" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="GS35" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="GT35" t="n">
+        <v>15</v>
+      </c>
+      <c r="GU35" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="GV35" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="GW35" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21988,6 +22618,24 @@
       <c r="GQ36" t="n">
         <v>187.4</v>
       </c>
+      <c r="GR36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="GS36" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="GT36" t="n">
+        <v>188</v>
+      </c>
+      <c r="GU36" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="GV36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="GW36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22589,6 +23237,24 @@
       <c r="GQ37" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="GR37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="GS37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="GT37" t="n">
+        <v>87</v>
+      </c>
+      <c r="GU37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="GV37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="GW37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23190,6 +23856,24 @@
       <c r="GQ38" t="n">
         <v>25.49</v>
       </c>
+      <c r="GR38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GS38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GT38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GU38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GV38" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="GW38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -23791,6 +24475,24 @@
       <c r="GQ39" t="n">
         <v>97.7</v>
       </c>
+      <c r="GR39" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="GS39" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="GT39" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="GU39" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="GV39" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="GW39" t="n">
+        <v>95.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24392,6 +25094,24 @@
       <c r="GQ40" t="n">
         <v>8</v>
       </c>
+      <c r="GR40" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS40" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT40" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU40" t="n">
+        <v>6</v>
+      </c>
+      <c r="GV40" t="n">
+        <v>4</v>
+      </c>
+      <c r="GW40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -24993,6 +25713,24 @@
       <c r="GQ41" t="n">
         <v>5</v>
       </c>
+      <c r="GR41" t="n">
+        <v>5</v>
+      </c>
+      <c r="GS41" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT41" t="n">
+        <v>7</v>
+      </c>
+      <c r="GU41" t="n">
+        <v>7</v>
+      </c>
+      <c r="GV41" t="n">
+        <v>8</v>
+      </c>
+      <c r="GW41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25594,6 +26332,24 @@
       <c r="GQ42" t="n">
         <v>5</v>
       </c>
+      <c r="GR42" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS42" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT42" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU42" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV42" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26195,6 +26951,24 @@
       <c r="GQ43" t="n">
         <v>4</v>
       </c>
+      <c r="GR43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GS43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV43" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -26796,6 +27570,24 @@
       <c r="GQ44" t="n">
         <v>128</v>
       </c>
+      <c r="GR44" t="n">
+        <v>117</v>
+      </c>
+      <c r="GS44" t="n">
+        <v>123</v>
+      </c>
+      <c r="GT44" t="n">
+        <v>112</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>110</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>146</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27397,6 +28189,24 @@
       <c r="GQ45" t="n">
         <v>126</v>
       </c>
+      <c r="GR45" t="n">
+        <v>224</v>
+      </c>
+      <c r="GS45" t="n">
+        <v>228</v>
+      </c>
+      <c r="GT45" t="n">
+        <v>168</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>177</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>146</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -27998,6 +28808,24 @@
       <c r="GQ46" t="n">
         <v>148</v>
       </c>
+      <c r="GR46" t="n">
+        <v>242</v>
+      </c>
+      <c r="GS46" t="n">
+        <v>262</v>
+      </c>
+      <c r="GT46" t="n">
+        <v>195</v>
+      </c>
+      <c r="GU46" t="n">
+        <v>200</v>
+      </c>
+      <c r="GV46" t="n">
+        <v>181</v>
+      </c>
+      <c r="GW46" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -28599,6 +29427,24 @@
       <c r="GQ47" t="n">
         <v>57.4</v>
       </c>
+      <c r="GR47" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="GS47" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="GT47" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="GU47" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="GV47" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="GW47" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29200,6 +30046,24 @@
       <c r="GQ48" t="n">
         <v>48</v>
       </c>
+      <c r="GR48" t="n">
+        <v>42</v>
+      </c>
+      <c r="GS48" t="n">
+        <v>49</v>
+      </c>
+      <c r="GT48" t="n">
+        <v>57</v>
+      </c>
+      <c r="GU48" t="n">
+        <v>44</v>
+      </c>
+      <c r="GV48" t="n">
+        <v>52</v>
+      </c>
+      <c r="GW48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -29801,6 +30665,24 @@
       <c r="GQ49" t="n">
         <v>6</v>
       </c>
+      <c r="GR49" t="n">
+        <v>9</v>
+      </c>
+      <c r="GS49" t="n">
+        <v>9</v>
+      </c>
+      <c r="GT49" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU49" t="n">
+        <v>10</v>
+      </c>
+      <c r="GV49" t="n">
+        <v>10</v>
+      </c>
+      <c r="GW49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -30402,6 +31284,24 @@
       <c r="GQ50" t="n">
         <v>4</v>
       </c>
+      <c r="GR50" t="n">
+        <v>8</v>
+      </c>
+      <c r="GS50" t="n">
+        <v>11</v>
+      </c>
+      <c r="GT50" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU50" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV50" t="n">
+        <v>6</v>
+      </c>
+      <c r="GW50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31003,6 +31903,24 @@
       <c r="GQ51" t="n">
         <v>34</v>
       </c>
+      <c r="GR51" t="n">
+        <v>33</v>
+      </c>
+      <c r="GS51" t="n">
+        <v>34</v>
+      </c>
+      <c r="GT51" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU51" t="n">
+        <v>24</v>
+      </c>
+      <c r="GV51" t="n">
+        <v>32</v>
+      </c>
+      <c r="GW51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -31604,6 +32522,24 @@
       <c r="GQ52" t="n">
         <v>22</v>
       </c>
+      <c r="GR52" t="n">
+        <v>26</v>
+      </c>
+      <c r="GS52" t="n">
+        <v>29</v>
+      </c>
+      <c r="GT52" t="n">
+        <v>44</v>
+      </c>
+      <c r="GU52" t="n">
+        <v>40</v>
+      </c>
+      <c r="GV52" t="n">
+        <v>27</v>
+      </c>
+      <c r="GW52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32205,6 +33141,24 @@
       <c r="GQ53" t="n">
         <v>59</v>
       </c>
+      <c r="GR53" t="n">
+        <v>43</v>
+      </c>
+      <c r="GS53" t="n">
+        <v>51</v>
+      </c>
+      <c r="GT53" t="n">
+        <v>46</v>
+      </c>
+      <c r="GU53" t="n">
+        <v>51</v>
+      </c>
+      <c r="GV53" t="n">
+        <v>54</v>
+      </c>
+      <c r="GW53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -32806,6 +33760,24 @@
       <c r="GQ54" t="n">
         <v>0</v>
       </c>
+      <c r="GR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS54" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT54" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU54" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV54" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -33407,6 +34379,24 @@
       <c r="GQ55" t="n">
         <v>0</v>
       </c>
+      <c r="GR55" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS55" t="n">
+        <v>11</v>
+      </c>
+      <c r="GT55" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU55" t="n">
+        <v>6</v>
+      </c>
+      <c r="GV55" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34008,6 +34998,24 @@
       <c r="GQ56" t="n">
         <v>0</v>
       </c>
+      <c r="GR56" t="n">
+        <v>100</v>
+      </c>
+      <c r="GS56" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="GT56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GU56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="GV56" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="GW56" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -34609,6 +35617,24 @@
       <c r="GQ57" t="n">
         <v>203</v>
       </c>
+      <c r="GR57" t="n">
+        <v>173</v>
+      </c>
+      <c r="GS57" t="n">
+        <v>144</v>
+      </c>
+      <c r="GT57" t="n">
+        <v>170</v>
+      </c>
+      <c r="GU57" t="n">
+        <v>172</v>
+      </c>
+      <c r="GV57" t="n">
+        <v>191</v>
+      </c>
+      <c r="GW57" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35210,6 +36236,24 @@
       <c r="GQ58" t="n">
         <v>100</v>
       </c>
+      <c r="GR58" t="n">
+        <v>87</v>
+      </c>
+      <c r="GS58" t="n">
+        <v>130</v>
+      </c>
+      <c r="GT58" t="n">
+        <v>89</v>
+      </c>
+      <c r="GU58" t="n">
+        <v>146</v>
+      </c>
+      <c r="GV58" t="n">
+        <v>98</v>
+      </c>
+      <c r="GW58" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -35811,6 +36855,24 @@
       <c r="GQ59" t="n">
         <v>303</v>
       </c>
+      <c r="GR59" t="n">
+        <v>260</v>
+      </c>
+      <c r="GS59" t="n">
+        <v>274</v>
+      </c>
+      <c r="GT59" t="n">
+        <v>259</v>
+      </c>
+      <c r="GU59" t="n">
+        <v>318</v>
+      </c>
+      <c r="GV59" t="n">
+        <v>289</v>
+      </c>
+      <c r="GW59" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -36412,6 +37474,24 @@
       <c r="GQ60" t="n">
         <v>2.03</v>
       </c>
+      <c r="GR60" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="GS60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="GT60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="GU60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="GV60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="GW60" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37013,6 +38093,24 @@
       <c r="GQ61" t="n">
         <v>84</v>
       </c>
+      <c r="GR61" t="n">
+        <v>91</v>
+      </c>
+      <c r="GS61" t="n">
+        <v>53</v>
+      </c>
+      <c r="GT61" t="n">
+        <v>63</v>
+      </c>
+      <c r="GU61" t="n">
+        <v>52</v>
+      </c>
+      <c r="GV61" t="n">
+        <v>78</v>
+      </c>
+      <c r="GW61" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -37614,6 +38712,24 @@
       <c r="GQ62" t="n">
         <v>57</v>
       </c>
+      <c r="GR62" t="n">
+        <v>41</v>
+      </c>
+      <c r="GS62" t="n">
+        <v>55</v>
+      </c>
+      <c r="GT62" t="n">
+        <v>39</v>
+      </c>
+      <c r="GU62" t="n">
+        <v>69</v>
+      </c>
+      <c r="GV62" t="n">
+        <v>54</v>
+      </c>
+      <c r="GW62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38215,6 +39331,24 @@
       <c r="GQ63" t="n">
         <v>38</v>
       </c>
+      <c r="GR63" t="n">
+        <v>35</v>
+      </c>
+      <c r="GS63" t="n">
+        <v>34</v>
+      </c>
+      <c r="GT63" t="n">
+        <v>26</v>
+      </c>
+      <c r="GU63" t="n">
+        <v>48</v>
+      </c>
+      <c r="GV63" t="n">
+        <v>45</v>
+      </c>
+      <c r="GW63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -38816,6 +39950,24 @@
       <c r="GQ64" t="n">
         <v>16</v>
       </c>
+      <c r="GR64" t="n">
+        <v>11</v>
+      </c>
+      <c r="GS64" t="n">
+        <v>20</v>
+      </c>
+      <c r="GT64" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU64" t="n">
+        <v>13</v>
+      </c>
+      <c r="GV64" t="n">
+        <v>16</v>
+      </c>
+      <c r="GW64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -39417,6 +40569,24 @@
       <c r="GQ65" t="n">
         <v>16</v>
       </c>
+      <c r="GR65" t="n">
+        <v>8</v>
+      </c>
+      <c r="GS65" t="n">
+        <v>17</v>
+      </c>
+      <c r="GT65" t="n">
+        <v>13</v>
+      </c>
+      <c r="GU65" t="n">
+        <v>10</v>
+      </c>
+      <c r="GV65" t="n">
+        <v>15</v>
+      </c>
+      <c r="GW65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40018,6 +41188,24 @@
       <c r="GQ66" t="n">
         <v>10</v>
       </c>
+      <c r="GR66" t="n">
+        <v>9</v>
+      </c>
+      <c r="GS66" t="n">
+        <v>8</v>
+      </c>
+      <c r="GT66" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU66" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV66" t="n">
+        <v>12</v>
+      </c>
+      <c r="GW66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -40619,6 +41807,24 @@
       <c r="GQ67" t="n">
         <v>6</v>
       </c>
+      <c r="GR67" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS67" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT67" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU67" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV67" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -41220,6 +42426,24 @@
       <c r="GQ68" t="n">
         <v>5</v>
       </c>
+      <c r="GR68" t="n">
+        <v>5</v>
+      </c>
+      <c r="GS68" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT68" t="n">
+        <v>7</v>
+      </c>
+      <c r="GU68" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV68" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -41821,6 +43045,24 @@
       <c r="GQ69" t="n">
         <v>1</v>
       </c>
+      <c r="GR69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV69" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -42422,6 +43664,24 @@
       <c r="GQ70" t="n">
         <v>16</v>
       </c>
+      <c r="GR70" t="n">
+        <v>16</v>
+      </c>
+      <c r="GS70" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT70" t="n">
+        <v>14</v>
+      </c>
+      <c r="GU70" t="n">
+        <v>19</v>
+      </c>
+      <c r="GV70" t="n">
+        <v>19</v>
+      </c>
+      <c r="GW70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43023,6 +44283,24 @@
       <c r="GQ71" t="n">
         <v>62.5</v>
       </c>
+      <c r="GR71" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="GS71" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="GT71" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="GU71" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="GV71" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="GW71" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -43624,6 +44902,24 @@
       <c r="GQ72" t="n">
         <v>30.3</v>
       </c>
+      <c r="GR72" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="GS72" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="GT72" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="GU72" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="GV72" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="GW72" t="n">
+        <v>21.42</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -44225,6 +45521,24 @@
       <c r="GQ73" t="n">
         <v>18.94</v>
       </c>
+      <c r="GR73" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="GS73" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="GT73" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="GU73" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="GV73" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="GW73" t="n">
+        <v>11.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -44826,6 +46140,24 @@
       <c r="GQ74" t="n">
         <v>32</v>
       </c>
+      <c r="GR74" t="n">
+        <v>29</v>
+      </c>
+      <c r="GS74" t="n">
+        <v>27</v>
+      </c>
+      <c r="GT74" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU74" t="n">
+        <v>34</v>
+      </c>
+      <c r="GV74" t="n">
+        <v>36</v>
+      </c>
+      <c r="GW74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -45427,6 +46759,24 @@
       <c r="GQ75" t="n">
         <v>48</v>
       </c>
+      <c r="GR75" t="n">
+        <v>35</v>
+      </c>
+      <c r="GS75" t="n">
+        <v>41</v>
+      </c>
+      <c r="GT75" t="n">
+        <v>43</v>
+      </c>
+      <c r="GU75" t="n">
+        <v>37</v>
+      </c>
+      <c r="GV75" t="n">
+        <v>48</v>
+      </c>
+      <c r="GW75" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46028,6 +47378,24 @@
       <c r="GQ76" t="n">
         <v>47</v>
       </c>
+      <c r="GR76" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS76" t="n">
+        <v>32</v>
+      </c>
+      <c r="GT76" t="n">
+        <v>31</v>
+      </c>
+      <c r="GU76" t="n">
+        <v>18</v>
+      </c>
+      <c r="GV76" t="n">
+        <v>39</v>
+      </c>
+      <c r="GW76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -46629,6 +47997,24 @@
       <c r="GQ77" t="n">
         <v>33</v>
       </c>
+      <c r="GR77" t="n">
+        <v>36</v>
+      </c>
+      <c r="GS77" t="n">
+        <v>37</v>
+      </c>
+      <c r="GT77" t="n">
+        <v>49</v>
+      </c>
+      <c r="GU77" t="n">
+        <v>49</v>
+      </c>
+      <c r="GV77" t="n">
+        <v>39</v>
+      </c>
+      <c r="GW77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -47230,6 +48616,24 @@
       <c r="GQ78" t="n">
         <v>2.06</v>
       </c>
+      <c r="GR78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="GS78" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="GT78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="GU78" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="GV78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="GW78" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -47831,6 +49235,24 @@
       <c r="GQ79" t="n">
         <v>3.3</v>
       </c>
+      <c r="GR79" t="n">
+        <v>4</v>
+      </c>
+      <c r="GS79" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="GT79" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="GU79" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="GV79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="GW79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -48432,6 +49854,24 @@
       <c r="GQ80" t="n">
         <v>45.5</v>
       </c>
+      <c r="GR80" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="GS80" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="GT80" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="GU80" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="GV80" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="GW80" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -49033,6 +50473,24 @@
       <c r="GQ81" t="n">
         <v>30.3</v>
       </c>
+      <c r="GR81" t="n">
+        <v>25</v>
+      </c>
+      <c r="GS81" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="GT81" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="GU81" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="GV81" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="GW81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -49634,6 +51092,24 @@
       <c r="GQ82" t="n">
         <v>187.2</v>
       </c>
+      <c r="GR82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="GS82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="GT82" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="GU82" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="GV82" t="n">
+        <v>187</v>
+      </c>
+      <c r="GW82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -50235,6 +51711,24 @@
       <c r="GQ83" t="n">
         <v>83.5</v>
       </c>
+      <c r="GR83" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="GS83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="GT83" t="n">
+        <v>86</v>
+      </c>
+      <c r="GU83" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="GV83" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="GW83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -50836,6 +52330,24 @@
       <c r="GQ84" t="n">
         <v>24.8</v>
       </c>
+      <c r="GR84" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="GS84" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GU84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="GV84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="GW84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -51437,6 +52949,24 @@
       <c r="GQ85" t="n">
         <v>68.59999999999999</v>
       </c>
+      <c r="GR85" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="GS85" t="n">
+        <v>87</v>
+      </c>
+      <c r="GT85" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="GU85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="GV85" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="GW85" t="n">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -52038,6 +53568,24 @@
       <c r="GQ86" t="n">
         <v>11</v>
       </c>
+      <c r="GR86" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS86" t="n">
+        <v>8</v>
+      </c>
+      <c r="GT86" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU86" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV86" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -52639,6 +54187,24 @@
       <c r="GQ87" t="n">
         <v>5</v>
       </c>
+      <c r="GR87" t="n">
+        <v>5</v>
+      </c>
+      <c r="GS87" t="n">
+        <v>7</v>
+      </c>
+      <c r="GT87" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU87" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV87" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -53240,6 +54806,24 @@
       <c r="GQ88" t="n">
         <v>4</v>
       </c>
+      <c r="GR88" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS88" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT88" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU88" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV88" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -53841,6 +55425,24 @@
       <c r="GQ89" t="n">
         <v>2</v>
       </c>
+      <c r="GR89" t="n">
+        <v>8</v>
+      </c>
+      <c r="GS89" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT89" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU89" t="n">
+        <v>7</v>
+      </c>
+      <c r="GV89" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -54442,6 +56044,24 @@
       <c r="GQ90" t="n">
         <v>133</v>
       </c>
+      <c r="GR90" t="n">
+        <v>98</v>
+      </c>
+      <c r="GS90" t="n">
+        <v>108</v>
+      </c>
+      <c r="GT90" t="n">
+        <v>121</v>
+      </c>
+      <c r="GU90" t="n">
+        <v>138</v>
+      </c>
+      <c r="GV90" t="n">
+        <v>123</v>
+      </c>
+      <c r="GW90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -55043,6 +56663,24 @@
       <c r="GQ91" t="n">
         <v>161</v>
       </c>
+      <c r="GR91" t="n">
+        <v>167</v>
+      </c>
+      <c r="GS91" t="n">
+        <v>163</v>
+      </c>
+      <c r="GT91" t="n">
+        <v>129</v>
+      </c>
+      <c r="GU91" t="n">
+        <v>179</v>
+      </c>
+      <c r="GV91" t="n">
+        <v>156</v>
+      </c>
+      <c r="GW91" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -55644,6 +57282,24 @@
       <c r="GQ92" t="n">
         <v>195</v>
       </c>
+      <c r="GR92" t="n">
+        <v>192</v>
+      </c>
+      <c r="GS92" t="n">
+        <v>198</v>
+      </c>
+      <c r="GT92" t="n">
+        <v>155</v>
+      </c>
+      <c r="GU92" t="n">
+        <v>212</v>
+      </c>
+      <c r="GV92" t="n">
+        <v>187</v>
+      </c>
+      <c r="GW92" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -56245,6 +57901,24 @@
       <c r="GQ93" t="n">
         <v>64.40000000000001</v>
       </c>
+      <c r="GR93" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="GS93" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="GT93" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="GU93" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GV93" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="GW93" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -56846,6 +58520,24 @@
       <c r="GQ94" t="n">
         <v>48</v>
       </c>
+      <c r="GR94" t="n">
+        <v>35</v>
+      </c>
+      <c r="GS94" t="n">
+        <v>41</v>
+      </c>
+      <c r="GT94" t="n">
+        <v>43</v>
+      </c>
+      <c r="GU94" t="n">
+        <v>37</v>
+      </c>
+      <c r="GV94" t="n">
+        <v>48</v>
+      </c>
+      <c r="GW94" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -57447,6 +59139,24 @@
       <c r="GQ95" t="n">
         <v>17</v>
       </c>
+      <c r="GR95" t="n">
+        <v>13</v>
+      </c>
+      <c r="GS95" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT95" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU95" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV95" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -58048,6 +59758,24 @@
       <c r="GQ96" t="n">
         <v>7</v>
       </c>
+      <c r="GR96" t="n">
+        <v>8</v>
+      </c>
+      <c r="GS96" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT96" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU96" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV96" t="n">
+        <v>6</v>
+      </c>
+      <c r="GW96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -58649,6 +60377,24 @@
       <c r="GQ97" t="n">
         <v>32</v>
       </c>
+      <c r="GR97" t="n">
+        <v>29</v>
+      </c>
+      <c r="GS97" t="n">
+        <v>27</v>
+      </c>
+      <c r="GT97" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU97" t="n">
+        <v>34</v>
+      </c>
+      <c r="GV97" t="n">
+        <v>36</v>
+      </c>
+      <c r="GW97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -59250,6 +60996,24 @@
       <c r="GQ98" t="n">
         <v>47</v>
       </c>
+      <c r="GR98" t="n">
+        <v>32</v>
+      </c>
+      <c r="GS98" t="n">
+        <v>32</v>
+      </c>
+      <c r="GT98" t="n">
+        <v>31</v>
+      </c>
+      <c r="GU98" t="n">
+        <v>18</v>
+      </c>
+      <c r="GV98" t="n">
+        <v>39</v>
+      </c>
+      <c r="GW98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -59851,6 +61615,24 @@
       <c r="GQ99" t="n">
         <v>46</v>
       </c>
+      <c r="GR99" t="n">
+        <v>56</v>
+      </c>
+      <c r="GS99" t="n">
+        <v>37</v>
+      </c>
+      <c r="GT99" t="n">
+        <v>35</v>
+      </c>
+      <c r="GU99" t="n">
+        <v>55</v>
+      </c>
+      <c r="GV99" t="n">
+        <v>38</v>
+      </c>
+      <c r="GW99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -60452,6 +62234,24 @@
       <c r="GQ100" t="n">
         <v>7</v>
       </c>
+      <c r="GR100" t="n">
+        <v>7</v>
+      </c>
+      <c r="GS100" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT100" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU100" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV100" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -61053,6 +62853,24 @@
       <c r="GQ101" t="n">
         <v>6</v>
       </c>
+      <c r="GR101" t="n">
+        <v>6</v>
+      </c>
+      <c r="GS101" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT101" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU101" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV101" t="n">
+        <v>7</v>
+      </c>
+      <c r="GW101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -61654,8 +63472,26 @@
       <c r="GQ102" t="n">
         <v>60</v>
       </c>
+      <c r="GR102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GS102" t="n">
+        <v>50</v>
+      </c>
+      <c r="GT102" t="n">
+        <v>20</v>
+      </c>
+      <c r="GU102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="GV102" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="GW102" t="n">
+        <v>33.3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>